--- a/src/LugaresRegistrados/Precios.xlsx
+++ b/src/LugaresRegistrados/Precios.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C459"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,2141 +415,5045 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Terraza Cha Cha Chá</v>
+        <v>Café De Tacuba</v>
       </c>
       <c r="B2" t="str">
-        <v>Av. de la República 157, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C2" t="str">
-        <v/>
+        <v>C. de Tacuba 28, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Perros y Burros Parque Tepeyac</v>
+        <v>Taco Game</v>
       </c>
       <c r="B3" t="str">
-        <v>Eduardo Molina 6730, Granjas Modernas, Gustavo A. Madero, 07460 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C3" t="str">
-        <v/>
+        <v>Av. Coyoacán 119, código 2, Col del Valle Nte, Benito Juárez, 03100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C3">
+        <v>250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Fisher's Polanco</v>
+        <v>Terraza Cha Cha Chá</v>
       </c>
       <c r="B4" t="str">
-        <v>Av. Horacio 232, Polanco, Polanco V Secc, Miguel Hidalgo, 11530 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C4" t="str">
-        <v/>
+        <v>Av. de la República 157, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C4">
+        <v>650</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Restaurante El mesón de Valencia</v>
+        <v>La Reyna del Bosque</v>
       </c>
       <c r="B5" t="str">
-        <v>Av. Luis Hidalgo Monroy 345, San Miguel, Iztapalapa, 09360 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C5" t="str">
-        <v/>
+        <v>Av. 510, Ex Ejido San Juan de Aragón, Gustavo A. Madero, 07919 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C5">
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Café del Parque</v>
+        <v>Perros y Burros Parque Tepeyac</v>
       </c>
       <c r="B6" t="str">
-        <v>Av. Isaac Newton 215, Polanco Chapultepec, Polanco V Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C6" t="str">
-        <v/>
+        <v>Eduardo Molina 6730, Granjas Modernas, Gustavo A. Madero, 07460 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C6">
+        <v>250</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Chuck E Cheese Encuentro Fortuna</v>
+        <v>Skate Park Constituyentes</v>
       </c>
       <c r="B7" t="str">
-        <v>Av Fortuna 334, Magdalena de las Salinas, Gustavo A. Madero, 07760 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C7" t="str">
-        <v/>
+        <v>Av. de los Compositores 1505, Bosque de Chapultepec II Secc, Miguel Hidalgo, 11100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Finca Don Porfirio</v>
+        <v>Boliches AMF Insurgentes</v>
       </c>
       <c r="B8" t="str">
-        <v>Av. Juarez 14, Colonia Centro, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C8" t="str">
-        <v/>
+        <v>Hermes 25, Crédito Constructor, Benito Juárez, 03940 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C8">
+        <v>150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Lago</v>
+        <v>Fisher's Polanco</v>
       </c>
       <c r="B9" t="str">
-        <v>Bosque de Chapultepec, Pista El Sope S/N, Bosque de Chapultepec II Secc, Miguel Hidalgo, 11100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C9" t="str">
-        <v/>
+        <v>Av. Horacio 232, Polanco, Polanco V Secc, Miguel Hidalgo, 11530 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C9">
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Billar Familiar EL PARQUE</v>
+        <v>Plaza de la Constitución</v>
       </c>
       <c r="B10" t="str">
-        <v>Calle San Juan de Los Lagos y Calle Héroes de Nacozari, Ayutla, San Felipe de Jesús, Gustavo A. Madero, 07510 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C10" t="str">
-        <v/>
+        <v>P.za de la Constitución S/N, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Walmart Satélite</v>
+        <v>Restaurante El mesón de Valencia</v>
       </c>
       <c r="B11" t="str">
-        <v>Cto Centro Comercial 19, Cd. Satélite, 53100 Naucalpan de Juárez, Méx.</v>
-      </c>
-      <c r="C11" t="str">
-        <v/>
+        <v>Av. Luis Hidalgo Monroy 345, San Miguel, Iztapalapa, 09360 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Las QueSabrosas del Parque</v>
+        <v>Dairy Queen Santa Fe</v>
       </c>
       <c r="B12" t="str">
-        <v>Calle José Antonio Torres 600, Vista Alegre, Cuauhtémoc, 06860 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C12" t="str">
-        <v/>
+        <v>Centro comercial, Vasco de Quiroga 3800, Santa Fe, Antigua totolalpa, Cuajimalpa de Morelos, 05109 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C12">
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>La Única</v>
+        <v>Doncella Café</v>
       </c>
       <c r="B13" t="str">
-        <v>Anatole France 98, Polanco, Polanco III Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C13" t="str">
-        <v/>
+        <v>Ezequiel Montes 73, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C13">
+        <v>300</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Toks Iztapalapa</v>
+        <v>Café del Parque</v>
       </c>
       <c r="B14" t="str">
-        <v>Ermita Iztapalapa 1863, Los Ángeles, Iztapalapa, 09830 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C14" t="str">
-        <v/>
+        <v>Av. Isaac Newton 215, Polanco Chapultepec, Polanco V Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C14">
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Sanborns Balbuena</v>
+        <v>Chuck E Cheese Encuentro Fortuna</v>
       </c>
       <c r="B15" t="str">
-        <v>Fray Servando Teresa de Mier 647, Jardín Balbuena, Venustiano Carranza, 15900 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C15" t="str">
-        <v/>
+        <v>Av Fortuna 334, Magdalena de las Salinas, Gustavo A. Madero, 07760 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C15">
+        <v>400</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Petco Parque La Mexicana</v>
+        <v>Parque Recreativo Francisco I Madero</v>
       </c>
       <c r="B16" t="str">
-        <v>Lomas de Santa Fe, Contadero, Cuajimalpa de Morelos, 01219 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C16" t="str">
-        <v/>
+        <v>Morelos, Venustiano Carranza, 15270 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Ten-Pin Boliche</v>
+        <v>Ex Antigua Aduana</v>
       </c>
       <c r="B17" t="str">
-        <v>Blvrd Everardo Márquez 198, Ex Hacienda de Coscotitlán, 42064 Pachuca de Soto, Hgo.</v>
-      </c>
-      <c r="C17" t="str">
-        <v/>
+        <v>República de Brasil 31, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06020 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C17">
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Panadería "La Aragón"</v>
+        <v>Aviario Moctezuma</v>
       </c>
       <c r="B18" t="str">
-        <v>Av 606 149, San Juan de Aragón IV Secc, Gustavo A. Madero, 07979 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C18" t="str">
-        <v/>
+        <v>Zoológico de Chapultepec, Calz. Chivatito 1, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11580 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C18">
+        <v>600</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>La BTK Parque Tepeyac</v>
+        <v>Museo Nacional De San Carlos</v>
       </c>
       <c r="B19" t="str">
-        <v>Calz. San Juan de Aragón 461, Granjas Modernas, Gustavo A. Madero, 07460 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C19" t="str">
-        <v/>
+        <v>Av. México-Tenochtitlán 50, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C19">
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>PANADERÍA "ARAGON"</v>
+        <v>Le Petit Resto</v>
       </c>
       <c r="B20" t="str">
-        <v>Aragón 227, Álamos, Benito Juárez, 03400 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C20" t="str">
-        <v/>
+        <v>San Antonio 100, Nápoles, Benito Juárez, 03840 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>CANCHAS DE FUTBOL Y BASQUETBOL</v>
+        <v>Parroquia de San Fernando</v>
       </c>
       <c r="B21" t="str">
-        <v>Av. Toscanos SN, Isidro Fabela, Álvaro Obregón, 01160 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C21" t="str">
-        <v/>
+        <v>C. Guerrero 39, Centro Histórico de la Cdad. de México, Guerrero, Cuauhtémoc, 06300 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C21">
+        <v>250</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Cantina La 20</v>
+        <v>Aura Galerías | Juárez</v>
       </c>
       <c r="B22" t="str">
-        <v>Av. Ejército Nacional Mexicano 843, Polanco, Granada, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C22" t="str">
-        <v/>
+        <v>Atenas 30, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C22">
+        <v>400</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>El Farolito Polanco</v>
+        <v>Museo Nacional De Arte (MUNAL)</v>
       </c>
       <c r="B23" t="str">
-        <v>Av. Isaac Newton 130, Chapultepec Morales, Polanco V Secc, Miguel Hidalgo, 11570 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C23" t="str">
-        <v/>
+        <v>C. de Tacuba 8, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Rebel Wings Universidad</v>
+        <v>Mi Compa Chava Marisquería</v>
       </c>
       <c r="B24" t="str">
-        <v>Av. Universidad 1892, Romero de Terreros, Coyoacán, 04310 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C24" t="str">
-        <v/>
+        <v>Zacatecas 172, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C24">
+        <v>199</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Loma Linda Carso</v>
+        <v>Finca Don Porfirio</v>
       </c>
       <c r="B25" t="str">
-        <v>C. Lago Zurich 245, Amp Granada, Miguel Hidalgo, 11520 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C25" t="str">
-        <v/>
+        <v>Av. Juarez 14, Colonia Centro, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C25">
+        <v>200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>L'Entrecote - Le Relais de Venise</v>
+        <v>Plaza Inn</v>
       </c>
       <c r="B26" t="str">
-        <v>Av. Emilio Castelar 121-local J, Polanco, Polanco III Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C26" t="str">
-        <v/>
+        <v>Av. Insurgentes Sur 1971, Guadalupe Inn, Álvaro Obregón, 01020 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Terraza Gran Hotel</v>
+        <v>Toks Misterios</v>
       </c>
       <c r="B27" t="str">
-        <v>16 de Septiembre 82, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C27" t="str">
-        <v/>
+        <v>Calz. de los Misterios 62 Colonia, Tepeyac Insurgentes, Gustavo A. Madero, 07300 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C27">
+        <v>250</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>La Parrilla Suiza</v>
+        <v>Lago</v>
       </c>
       <c r="B28" t="str">
-        <v>Av Moliere #340, Polanco, Polanco II Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C28" t="str">
-        <v/>
+        <v>Bosque de Chapultepec, Pista El Sope S/N, Bosque de Chapultepec II Secc, Miguel Hidalgo, 11100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C28">
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Salón Malafama</v>
+        <v>Tacos El Paisa</v>
       </c>
       <c r="B29" t="str">
-        <v>Av Michoacán 78, Colonia Condesa, Cuauhtémoc, 06140 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C29" t="str">
-        <v/>
+        <v>Av. 508 105A, San Juan de Aragón II Secc, Gustavo A. Madero, 07969 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C29">
+        <v>150</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Italianni's Universidad</v>
+        <v>Billar Familiar EL PARQUE</v>
       </c>
       <c r="B30" t="str">
-        <v>Centro Comercial, Plaza Universidad, Av. Universidad 1000, Sta Cruz Atoyac, Benito Juárez, 03310 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C30" t="str">
-        <v/>
+        <v>Calle San Juan de Los Lagos y Calle Héroes de Nacozari, Ayutla, San Felipe de Jesús, Gustavo A. Madero, 07510 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Hello Kitty Café Chateau</v>
+        <v>Arcade World Mx - GameX</v>
       </c>
       <c r="B31" t="str">
-        <v>Av. de la Paz 14, San Ángel, Álvaro Obregón, 01000 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C31" t="str">
-        <v/>
+        <v>Friki plaza Eje central SÓTANO L 28 y 29, Eje Central Lázaro Cárdenas 9-Local 240, Colonia Centro, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C31">
+        <v>150</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Walmart Lago de Guadalupe</v>
+        <v>El Sheik</v>
       </c>
       <c r="B32" t="str">
-        <v>Av Lago de Guadalupe s/n, San Pedro Barrientos, 54010 Tlalnepantla, Méx.</v>
-      </c>
-      <c r="C32" t="str">
-        <v/>
+        <v>C. Madrid 129, Del Carmen, Coyoacán, 04109 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C32">
+        <v>300</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Parker &amp; Lenox</v>
+        <v>Templo de San Felipe Neri (La Profesa)</v>
       </c>
       <c r="B33" t="str">
-        <v>Calle Gral. Prim 100, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C33" t="str">
-        <v/>
+        <v>Isabel La Católica 21, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>TORTAS "LA SAMARITANA"</v>
+        <v>Pista de Hielo Santa Fe</v>
       </c>
       <c r="B34" t="str">
-        <v>Campos Elíseos 116, Polanco, Polanco V Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C34" t="str">
-        <v/>
+        <v>Plaza Comercial, Vasco de Quiroga 1800, Santa Fe, Contadero, Cuajimalpa de Morelos, 05348 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C34">
+        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Sanborns Bamer</v>
+        <v>¡Creyendo lo Imposible! Primera Iglesia Bautista de la Ciudad de Mexico</v>
       </c>
       <c r="B35" t="str">
-        <v>Av. Juarez 54, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C35" t="str">
-        <v/>
+        <v>Zarco 50, Guerrero, Cuauhtémoc, 06300 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Churrería El Moro Parque Tepeyac</v>
+        <v>Estatua Ecuestre de Carlos IV</v>
       </c>
       <c r="B36" t="str">
-        <v>Eduardo Molina 6730, Granjas Modernas, Gustavo A. Madero, 07460 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C36" t="str">
-        <v/>
+        <v>C. de Tacuba 5, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C36">
+        <v>250</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Pizza del Perro Negro</v>
+        <v>Las Brasileñas</v>
       </c>
       <c r="B37" t="str">
-        <v>C. Xicoténcatl 319, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C37" t="str">
-        <v/>
+        <v>República de Brasil 60, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C37">
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Butcher and Sons Polanco</v>
+        <v>Acuario paraíso</v>
       </c>
       <c r="B38" t="str">
-        <v>Virgilio 8-Local B, Polanco, Polanco III Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C38" t="str">
-        <v/>
+        <v>Av Chapultepec 8, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C38">
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Taquería El Califa Universidad</v>
+        <v>Carvao do Brasil Oceanía Churrascaria</v>
       </c>
       <c r="B39" t="str">
-        <v>Av. Universidad 654, Letran Valle, Benito Juárez, 03650 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C39" t="str">
-        <v/>
+        <v>Av. del Peñón 355, Moctezuma 2da Secc, Venustiano Carranza, 15530 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C39">
+        <v>500</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Prendes</v>
+        <v>Aqua Landscape</v>
       </c>
       <c r="B40" t="str">
-        <v>Moliere, Palacio de Hierro 222, Polanco, Polanco II Secc, Miguel Hidalgo, 05320 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C40" t="str">
-        <v/>
+        <v>Local F, Morelos, Venustiano Carranza, 15270 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C40">
+        <v>150</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Fuentes Brotantes de Tlalpan</v>
+        <v>Museo del Templo Mayor</v>
       </c>
       <c r="B41" t="str">
-        <v>Av de Las Fuentes, Fuentes Brotantes, Tlalpan, 14410 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C41" t="str">
-        <v/>
+        <v>Seminario 8, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06060 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C41">
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Petco Viveros Express</v>
+        <v>Alboa Patriotismo</v>
       </c>
       <c r="B42" t="str">
-        <v>Av. Universidad 1525, Axotla, Álvaro Obregón, 01030 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C42" t="str">
-        <v/>
+        <v>Av. Patriotismo 229, San Pedro de los Pinos, Benito Juárez, 03810 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C42">
+        <v>300</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>RUSH pool beer &amp; snack</v>
+        <v>Planetario Luis Enrique Erro</v>
       </c>
       <c r="B43" t="str">
-        <v>127 de, Francisco del Paso y Troncoso, Jardín Balbuena, Venustiano Carranza, 15900 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C43" t="str">
-        <v/>
+        <v>Av. Wilfrido Massieu, Nueva Industrial Vallejo, Gustavo A. Madero, 07700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>El Globo Villas de Aragón</v>
+        <v>Las QueSabrosas del Parque</v>
       </c>
       <c r="B44" t="str">
-        <v>Av. Central 20, Villa de Aragón, 07570 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C44" t="str">
-        <v/>
+        <v>Calle José Antonio Torres 600, Vista Alegre, Cuauhtémoc, 06860 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C44">
+        <v>200</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Chili's Universidad 767</v>
+        <v>Catedral Metropolitana de la Ciudad de México</v>
       </c>
       <c r="B45" t="str">
-        <v>Av. Universidad 767, Col del Valle Sur, Benito Juárez, 03100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C45" t="str">
-        <v/>
+        <v>P.za de la Constitución S/N, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C45">
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Le Pain Quotidien</v>
+        <v>Parque Tepeyac</v>
       </c>
       <c r="B46" t="str">
-        <v>Oscar Wilde 30, Polanco, Col. Chapultepec Polanco, Miguel Hidalgo, 11500 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C46" t="str">
-        <v/>
+        <v>Eduardo Molina 6730, Granjas Modernas, Gustavo A. Madero, 07460 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Nube 7 Restaurante</v>
+        <v>Antigua Casa del General Porfirio Diaz</v>
       </c>
       <c r="B47" t="str">
-        <v>Centro Cultural Universitario. MUAC, Av. Insurgentes Sur 3000, C.U., Coyoacán, 04510 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C47" t="str">
-        <v/>
+        <v>Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C47">
+        <v>250</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Museo Real de Ontario</v>
+        <v>Aguafuerte Galería</v>
       </c>
       <c r="B48" t="str">
-        <v>100 Queens Park, Toronto, ON M5S 2C6, Canadá</v>
-      </c>
-      <c r="C48" t="str">
-        <v/>
+        <v>Guanajuato 118, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>La Herradura</v>
+        <v>La Única</v>
       </c>
       <c r="B49" t="str">
-        <v>Carr Toluca - México 1350, 52753 Méx.</v>
-      </c>
-      <c r="C49" t="str">
-        <v/>
+        <v>Anatole France 98, Polanco, Polanco III Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C49">
+        <v>800</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Pan Gabriel Coyoacán</v>
+        <v>TequeChévere</v>
       </c>
       <c r="B50" t="str">
-        <v>Berlín 222, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C50" t="str">
-        <v/>
+        <v>Guadalupe del Moral, Iztapalapa, 09300 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C50">
+        <v>400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Starbucks Universidad 767</v>
+        <v>Club de Banqueros de México</v>
       </c>
       <c r="B51" t="str">
-        <v>Av. Universidad LK01 767, Col del Valle Sur, Benito Juárez, 03100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C51" t="str">
-        <v/>
+        <v>16 de Septiembre 27, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C51">
+        <v>150</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Starbucks Coyoacán Centro</v>
+        <v>Géiser Madero</v>
       </c>
       <c r="B52" t="str">
-        <v>Ignacio Allende 5, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C52" t="str">
-        <v/>
+        <v>Av. Juarez 24, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C52">
+        <v>250</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Cassava Roots Universidad</v>
+        <v>Gato Calavera</v>
       </c>
       <c r="B53" t="str">
-        <v>Av. Universidad 1000, Sta Cruz Atoyac, Benito Juárez, 03310 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C53" t="str">
-        <v/>
+        <v>Xola 114, Álamos, Benito Juárez, 03400 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C53">
+        <v>250</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Bar Chapultepec</v>
+        <v>El Tule</v>
       </c>
       <c r="B54" t="str">
-        <v>Av. Hidalgo 118, Centro Histórico de la Cdad. de México, Tabacalera, Cuauhtémoc, 06300 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C54" t="str">
-        <v/>
+        <v>Av. de la República 55-1A, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C54">
+        <v>51</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Café Andrade CDMX</v>
+        <v>Jardín Botánico del Bosque de Chapultepec</v>
       </c>
       <c r="B55" t="str">
-        <v>Plaza Comercial Yama Punta Museo, Av. División del Nte. 3572-Locales 10 y 11, San Pablo Tepetlapa, Coyoacán, 04620 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C55" t="str">
-        <v/>
+        <v>Av. P.º de la Reforma 126, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11580 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Restaurante Torino Santa Fe</v>
+        <v>Toks Iztapalapa</v>
       </c>
       <c r="B56" t="str">
-        <v>Vasco de Quiroga 3200, Santa Fe, Lomas de Sta Fé, Álvaro Obregón, 01210 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C56" t="str">
-        <v/>
+        <v>Ermita Iztapalapa 1863, Los Ángeles, Iztapalapa, 09830 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C56">
+        <v>300</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>La casa de Toño en Tlatelolco</v>
+        <v>Plaza de la República</v>
       </c>
       <c r="B57" t="str">
-        <v>Eje 2 Nte 5, San Simón Tolnahuac, Cuauhtémoc, 06920 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C57" t="str">
-        <v/>
+        <v>Av. de la República S/N, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Casa Franciscana</v>
+        <v>Sanborns Balbuena</v>
       </c>
       <c r="B58" t="str">
-        <v>Jesús María 42, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C58" t="str">
-        <v/>
+        <v>Fray Servando Teresa de Mier 647, Jardín Balbuena, Venustiano Carranza, 15900 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C58">
+        <v>400</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Perros y Burros, Pabellón Cuauhtémoc</v>
+        <v>Caravanserai</v>
       </c>
       <c r="B59" t="str">
-        <v>C. Antonio M. Anza 20, Centro Urbano Pdte. Juárez, Roma Sur, Cuauhtémoc, 06760 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C59" t="str">
-        <v/>
+        <v>C. Orizaba 101, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C59">
+        <v>150</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>El Mayor</v>
+        <v>Aventuras Outdoor Archery</v>
       </c>
       <c r="B60" t="str">
-        <v>República de Argentina 15, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06020 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C60" t="str">
-        <v/>
+        <v>Dentro del Deportivo Morelos, Av. José María Castorena 545, Rosa Torres, Cuajimalpa de Morelos, 05200 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C60">
+        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>El Zoo</v>
+        <v>Ten-Pin Boliche</v>
       </c>
       <c r="B61" t="str">
-        <v>14030, 2a. Nte. 40, Isidro Fabela, Tlalpan, 14030 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C61" t="str">
-        <v/>
+        <v>Blvrd Everardo Márquez 198, Ex Hacienda de Coscotitlán, 42064 Pachuca de Soto, Hgo.</v>
+      </c>
+      <c r="C61">
+        <v>500</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Villa María</v>
+        <v>Panadería "La Aragón"</v>
       </c>
       <c r="B62" t="str">
-        <v>Av. Homero 704, Polanco, Polanco IV Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C62" t="str">
-        <v/>
+        <v>Av 606 149, San Juan de Aragón IV Secc, Gustavo A. Madero, 07979 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C62">
+        <v>50</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Sanborns Centenario</v>
+        <v>La BTK Parque Tepeyac</v>
       </c>
       <c r="B63" t="str">
-        <v>Parque Centenario 5, Del Carmen, Coyoacán, 04000 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C63" t="str">
-        <v/>
+        <v>Calz. San Juan de Aragón 461, Granjas Modernas, Gustavo A. Madero, 07460 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C63">
+        <v>300</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>La Vaka Las Antenas</v>
+        <v>Chambao Polanco</v>
       </c>
       <c r="B64" t="str">
-        <v>Av. Canal de Garay 3278, La Esperanza, Iztapalapa, 09910 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C64" t="str">
-        <v/>
+        <v>Av. Pdte. Masaryk 460, Polanco, Polanco III Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C64">
+        <v>1000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Aragon Burger</v>
+        <v>Templo de Santa Inés Mártir</v>
       </c>
       <c r="B65" t="str">
-        <v>Av 604 229, San Juan de Aragón V Secc, Gustavo A. Madero, 07979 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C65" t="str">
-        <v/>
+        <v>Moneda 26, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C65">
+        <v>199</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Moshi Moshi Antara</v>
+        <v>PANADERÍA "ARAGON"</v>
       </c>
       <c r="B66" t="str">
-        <v>Av. Ejército Nacional Mexicano 843-B, Granada, Miguel Hidalgo, 11520 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C66" t="str">
-        <v/>
+        <v>Aragón 227, Álamos, Benito Juárez, 03400 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C66">
+        <v>50</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Antojitos Mexicanos La Almendrita</v>
+        <v>Cantina La 20</v>
       </c>
       <c r="B67" t="str">
-        <v>Ayuntamiento 37, San Pablo, Iztapalapa, 09000 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C67" t="str">
-        <v/>
+        <v>Av. Ejército Nacional Mexicano 843, Polanco, Granada, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C67">
+        <v>700</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Deportivo Rebeca</v>
+        <v>MUNDO DIVERTIDO</v>
       </c>
       <c r="B68" t="str">
-        <v>Oro, 2da Amp Santiago Acahualtepec, Iztapalapa, 09609 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C68" t="str">
-        <v/>
+        <v>Hacienda del Rosario, Ex el Rosario, Azcapotzalco, 02420 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Café Toscano Parque Mèxico</v>
+        <v>Monumento A San Juan Pablo II</v>
       </c>
       <c r="B69" t="str">
-        <v>Av Michoacán 30, Hipódromo, Cuauhtémoc, 06100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C69" t="str">
-        <v/>
+        <v>Calle Monte de Piedad 303, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06060 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Starbucks Bosques de Aragón</v>
+        <v>GoTan Restaurante Centro Histórico</v>
       </c>
       <c r="B70" t="str">
-        <v>Av. 510 340, Pueblo de San Juan de Aragón, Gustavo A. Madero, 07950 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C70" t="str">
-        <v/>
+        <v>Estacionamiento público a un lado, Revillagigedo 18, entre Av. Juárez e Independencia, Colonia Centro, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C70">
+        <v>300</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Jardín Chapultepec</v>
+        <v>Porter Steakhouse &amp; Seafood</v>
       </c>
       <c r="B71" t="str">
-        <v>Av Chapultepec 398, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C71" t="str">
-        <v/>
+        <v>Calle Julio Verne 102, Polanco, Polanco III Secc, Miguel Hidalgo, 11540 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C71">
+        <v>600</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>El Callejón Café</v>
+        <v>Templo de Nuestra Señora de Lourdes</v>
       </c>
       <c r="B72" t="str">
-        <v>Calle del 57 4-Local 5, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C72" t="str">
-        <v/>
+        <v>Calle de Bolívar 37, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C72">
+        <v>85</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>The Grill Aragón</v>
+        <v>Restaurant Ehden</v>
       </c>
       <c r="B73" t="str">
-        <v>Av. José Loreto Fabela 20, San Juan de Aragón II Secc, Gustavo A. Madero, 07969 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C73" t="str">
-        <v/>
+        <v>C. de Venustiano Carranza 148-Piso 1, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C73">
+        <v>300</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Sanborns Buenavista</v>
+        <v>Museo Manuel Tolsá</v>
       </c>
       <c r="B74" t="str">
-        <v>Av. Insurgentes Nte. 70, Sta María la Ribera, Cuauhtémoc, 06400 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C74" t="str">
-        <v/>
+        <v>C. de Tacuba 7, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Centro, CDMX</v>
+      </c>
+      <c r="C74">
+        <v>85</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Pescados y Mariscos Tío Froy</v>
+        <v>Universum, Museo de las Ciencias</v>
       </c>
       <c r="B75" t="str">
-        <v>Benito Juárez 23, San Lorenzo, Iztapalapa, 09900 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C75" t="str">
-        <v/>
+        <v>Circuito Cultural de Ciudad Universitaria S/N, Coyoacán, C.U., Coyoacán, 04510 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C75">
+        <v>100</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Tres Coyotes</v>
+        <v>Palacio Nacional</v>
       </c>
       <c r="B76" t="str">
-        <v>Ignacio Aldama 2, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C76" t="str">
-        <v/>
+        <v>P.za de la Constitución S/N, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06066 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C76">
+        <v>250</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Tacos Don Manolito</v>
+        <v>El Farolito Polanco</v>
       </c>
       <c r="B77" t="str">
-        <v>Aguayo 49, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C77" t="str">
-        <v/>
+        <v>Av. Isaac Newton 130, Chapultepec Morales, Polanco V Secc, Miguel Hidalgo, 11570 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C77">
+        <v>400</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Aranzazu Universidad</v>
+        <v>Havre 77</v>
       </c>
       <c r="B78" t="str">
-        <v>Av. Universidad 716-Local 1, Narvarte Poniente, Benito Juárez, 03650 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C78" t="str">
-        <v/>
+        <v>Havre 77, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C78">
+        <v>1000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Cafebrería El Péndulo Polanco</v>
+        <v>Rebel Wings Universidad</v>
       </c>
       <c r="B79" t="str">
-        <v>Alejandro Dumas 81, Polanco, Polanco IV Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C79" t="str">
-        <v/>
+        <v>Av. Universidad 1892, Romero de Terreros, Coyoacán, 04310 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C79">
+        <v>250</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>El Globo San Juan de Aragón</v>
+        <v>Play Time Santa Fe</v>
       </c>
       <c r="B80" t="str">
-        <v>Av. 502 242, Pueblo de San Juan de Aragón, Gustavo A. Madero, 07950 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C80" t="str">
-        <v/>
+        <v>Vasco de Quiroga 3800, Santa Fe, Cuajimalpa, Cuajimalpa de Morelos, 05109 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C80">
+        <v>150</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>LIDS San Mateo Topilejo</v>
+        <v>Museo Franz Mayer</v>
       </c>
       <c r="B81" t="str">
-        <v>Carr. a Topilejo, Guadalupe, Xochimilco, 16866 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C81" t="str">
-        <v/>
+        <v>Av. Hidalgo 45, Centro Histórico de la Cdad. de México, Guerrero, Cuauhtémoc, 06300 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C81">
+        <v>300</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>El Japonez</v>
+        <v>Estatua Josefa Ortiz De Domínguez (La Corregidora)</v>
       </c>
       <c r="B82" t="str">
-        <v>Av. Emilio Castelar 135, Polanco, Polanco III Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C82" t="str">
-        <v/>
+        <v>República de Brasil 31, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06020 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Saks Polanco</v>
+        <v>Acuario Las Güeras</v>
       </c>
       <c r="B83" t="str">
-        <v>11560 Campos Eliseos, Lamartine 133, Chapultepec Morales, esq, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C83" t="str">
-        <v/>
+        <v>Tlaloc y, Cda. Tonantzin 11, Tlaxpana, Miguel Hidalgo, 11370 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C83">
+        <v>199</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>El Desván Universidad</v>
+        <v>Jarisa Games</v>
       </c>
       <c r="B84" t="str">
-        <v>Av. Universidad 837, Col del Valle Sur, Benito Juárez, 03100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C84" t="str">
-        <v/>
+        <v>Eje Central Lázaro Cárdenas, Colonia Centro, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C84">
+        <v>150</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Cantina Salón Florida</v>
+        <v>Martina Fonda Fina</v>
       </c>
       <c r="B85" t="str">
-        <v>Av. Tlahuac 825, Culhuacan, Iztapalapa, 09800 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C85" t="str">
-        <v/>
+        <v>Calle Gral. Juan Cano 61, San Miguel Chapultepec I Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C85">
+        <v>150</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Peltre Lonchería Polanco</v>
+        <v>Palacio de Cultura Banamex - Palacio de Iturbide</v>
       </c>
       <c r="B86" t="str">
-        <v>Esquina Horacio con, Petrarca 253, Polanco, Polanco V Secc, Miguel Hidalgo, 11570 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C86" t="str">
-        <v/>
+        <v>Av Francisco I. Madero 17, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Terraza Azul</v>
+        <v>Jardín de Santiago</v>
       </c>
       <c r="B87" t="str">
-        <v>Av. Unidad Modelo 63, Modelo, Iztapalapa, 09089 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C87" t="str">
-        <v/>
+        <v>Av. Ricardo Flores Magón, Tlatelolco, Cuauhtémoc, 06900 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C87">
+        <v>85</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>El Jaibol Universidad</v>
+        <v>Loma Linda Carso</v>
       </c>
       <c r="B88" t="str">
-        <v>Av. Universidad 644, Letran Valle, Benito Juárez, 03650 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C88" t="str">
-        <v/>
+        <v>C. Lago Zurich 245, Amp Granada, Miguel Hidalgo, 11520 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C88">
+        <v>1000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Cerati Rock Bar</v>
+        <v>L'Entrecote - Le Relais de Venise</v>
       </c>
       <c r="B89" t="str">
-        <v>Av. Separadora Industrial 1947, Lima 15023, Perú</v>
-      </c>
-      <c r="C89" t="str">
-        <v/>
+        <v>Av. Emilio Castelar 121-local J, Polanco, Polanco III Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C89">
+        <v>800</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Limantour</v>
+        <v>Terraza Gran Hotel</v>
       </c>
       <c r="B90" t="str">
-        <v>Oscar Wilde 9, Polanco, Polanco III Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C90" t="str">
-        <v/>
+        <v>16 de Septiembre 82, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C90">
+        <v>1200</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Los Tamalitos de Balbuena</v>
+        <v>Monumento a Cuauhtémoc</v>
       </c>
       <c r="B91" t="str">
-        <v>Estacionamiento iglesia san felipe neri, Jardín Balbuena, Venustiano Carranza, 15900 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C91" t="str">
-        <v/>
+        <v>Av. P.º de la Reforma S/N, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Los Baristas</v>
+        <v>Maison Kayser Tacuba</v>
       </c>
       <c r="B92" t="str">
-        <v>Circuito Escolar, Copilco Universidad, C.U., Coyoacán, 04510 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C92" t="str">
-        <v/>
+        <v>Xicoténcatl 1, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C92">
+        <v>250</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Starbucks</v>
+        <v>Sonora Grill Reforma</v>
       </c>
       <c r="B93" t="str">
-        <v>Av. P.º de la Reforma s/n, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C93" t="str">
-        <v/>
+        <v>Paseo de La Reforma Nte 1, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C93">
+        <v>250</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>La Soldadera</v>
+        <v>La Parrilla Suiza</v>
       </c>
       <c r="B94" t="str">
-        <v>Av. de la República 157, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C94" t="str">
-        <v/>
+        <v>Av Moliere #340, Polanco, Polanco II Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C94">
+        <v>350</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Bisquets Obregón</v>
+        <v>Salón Malafama</v>
       </c>
       <c r="B95" t="str">
-        <v>Av. Universidad 319, Narvarte Poniente, Benito Juárez, 03020 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C95" t="str">
-        <v/>
+        <v>Av Michoacán 78, Colonia Condesa, Cuauhtémoc, 06140 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C95">
+        <v>500</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Restaurante Azul Maguey</v>
+        <v>El Timón de Cortés</v>
       </c>
       <c r="B96" t="str">
-        <v>Ignacio Allende 53, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C96" t="str">
-        <v/>
+        <v>C. Dr. Enrique González Martínez, esquina con, Av. Ribera de San Cosme 5, Sta María la Ribera, Cuauhtémoc, 06400 Cuauhtémoc, CDMX</v>
+      </c>
+      <c r="C96">
+        <v>600</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Rebel wings punta museo</v>
+        <v>Italianni's Universidad</v>
       </c>
       <c r="B97" t="str">
-        <v>Av. División del Nte. 3556, San Pablo Tepetlapa, Coyoacán, 04620 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C97" t="str">
-        <v/>
+        <v>Centro Comercial, Plaza Universidad, Av. Universidad 1000, Sta Cruz Atoyac, Benito Juárez, 03310 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C97">
+        <v>450</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Tierra Garat Londres</v>
+        <v>Gamer Score: RESTAURANTE DE VIDEOJUEGOS y MAQUINITAS (Insurgentes Sur)</v>
       </c>
       <c r="B98" t="str">
-        <v>Londres 361, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C98" t="str">
-        <v/>
+        <v>Av. Insurgentes Sur 1862, Florida, Álvaro Obregón, 01030 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C98">
+        <v>250</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Croasan</v>
+        <v>Karaoke Coreano</v>
       </c>
       <c r="B99" t="str">
-        <v>Ignacio Allende 168, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C99" t="str">
-        <v/>
+        <v>Londres 167, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Círculo 99 Billar &amp; Café Obrera</v>
+        <v>Papalote Museo del Niño</v>
       </c>
       <c r="B100" t="str">
-        <v>Eje Central Lázaro Cárdenas 248, Obrera, Cuauhtémoc, 06800 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C100" t="str">
-        <v/>
+        <v>Av Constituyentes 268, Bosque de Chapultepec II Secc, Miguel Hidalgo, 11100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C100">
+        <v>85</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Sears Universidad</v>
+        <v>kurimanzutto</v>
       </c>
       <c r="B101" t="str">
-        <v>Av. Universidad 1000, Sta Cruz Atoyac, Benito Juárez, 03310 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C101" t="str">
-        <v/>
+        <v>C. Gobernador Rafael Rebollar 94, San Miguel Chapultepec I Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C101">
+        <v>300</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>El Rincón del Parque</v>
+        <v>Hello Kitty Café Chateau</v>
       </c>
       <c r="B102" t="str">
-        <v>Matías Romero 1114, Col del Valle Centro, Benito Juárez, 03100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C102" t="str">
-        <v/>
+        <v>Av. de la Paz 14, San Ángel, Álvaro Obregón, 01000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C102">
+        <v>600</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>P.F. Chang's Patio Universidad</v>
+        <v>Parque Bicentenario</v>
       </c>
       <c r="B103" t="str">
-        <v>Av. Popocatépetl, esq. Universidad 546, Xoco, Benito Juárez, 03330 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C103" t="str">
-        <v/>
+        <v>Av. 5 de Mayo 290, Refinería 18 de Marzo, Miguel Hidalgo, 11210 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Elizondo Polanco</v>
+        <v>XTREME GAMES PUI ARCADES</v>
       </c>
       <c r="B104" t="str">
-        <v>Av. Ejército Nacional Mexicano 963, Col. Irrigación, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C104" t="str">
-        <v/>
+        <v>Av. Leyes de Reforma MZ137 LT1474, Leyes de Reforma 3ra Secc, Iztapalapa, 09310 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>El Camarón Guasaveño Ermita</v>
+        <v>Parker &amp; Lenox</v>
       </c>
       <c r="B105" t="str">
-        <v>Ermita Iztapalapa 2813, Sta Cruz Meyehualco, Iztapalapa, 09700 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C105" t="str">
-        <v/>
+        <v>Calle Gral. Prim 100, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C105">
+        <v>700</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Primer Cuadro Steak House</v>
+        <v>Templo de San Bernardo</v>
       </c>
       <c r="B106" t="str">
-        <v>P.za de la Constitución 13, Centro Histórico de la Cdad. de México, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C106" t="str">
-        <v/>
+        <v>20 de Noviembre 33, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C106">
+        <v>100</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Sport&amp;chips Coyoacán</v>
+        <v>Templo de Nuestra Señora de Loreto</v>
       </c>
       <c r="B107" t="str">
-        <v>Avenida Miguel Ángel de Quevedo, San Andrés 1144, Parque San Andrés, Coyoacán, 04040 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C107" t="str">
-        <v/>
+        <v>San Ildefonso 80, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C107">
+        <v>85</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>EL POLANQUITO</v>
+        <v>Parque España</v>
       </c>
       <c r="B108" t="str">
-        <v>Oscar Wilde 21, Polanco, Polanco III Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C108" t="str">
-        <v/>
+        <v>Parque España, Colonia Condesa, Cuauhtémoc, 06140 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>El Bajío Polanco</v>
+        <v>Aquí esta Texcoco</v>
       </c>
       <c r="B109" t="str">
-        <v>Alejandro Dumas 7, Polanco, Polanco IV Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C109" t="str">
-        <v/>
+        <v>C. California 97, Parque San Andrés, Coyoacán, 04040 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C109">
+        <v>250</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Walmart Pirules</v>
+        <v>Centro Histórico CDMX</v>
       </c>
       <c r="B110" t="str">
-        <v>Perif. Blvd. Manuel Ávila Camacho 2550, Colonia Fraccionamiento, Hab los Pirules, 54050 Valle De México, Méx.</v>
-      </c>
-      <c r="C110" t="str">
-        <v/>
+        <v>Zócalo, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06060 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C110">
+        <v>199</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Balcón del Zócalo</v>
+        <v>TORTAS "LA SAMARITANA"</v>
       </c>
       <c r="B111" t="str">
-        <v>Av. 5 de Mayo 61, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C111" t="str">
-        <v/>
+        <v>Campos Elíseos 116, Polanco, Polanco V Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C111">
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>La Vienet</v>
+        <v>Balboa Pizzería Cuauhtémoc</v>
       </c>
       <c r="B112" t="str">
-        <v>Viena 114, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C112" t="str">
-        <v/>
+        <v>C. Río Lerma 94, Cuauhtémoc, 06500 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C112">
+        <v>250</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Café Central Park</v>
+        <v>BraaiAsao Churrascaría</v>
       </c>
       <c r="B113" t="str">
-        <v>Av. Baja California 23, Roma Sur, Cuauhtémoc, 06760 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C113" t="str">
-        <v/>
+        <v>Calle 16 30, San Pedro de los Pinos, Álvaro Obregón, 01180 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C113">
+        <v>400</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Círculo 99 Billar &amp; Café</v>
+        <v>Los Sirenos Mariscos</v>
       </c>
       <c r="B114" t="str">
-        <v>Eje Central Lázaro Cárdenas 559, Narvarte Oriente, Benito Juárez, 03023 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C114" t="str">
-        <v/>
+        <v>06000, 2ᵃ Calle de Ernesto Pugibet 21-LOCAL 280, 281 y 282, Colonia Centro, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C114">
+        <v>350</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>El Refugio del Mosco</v>
+        <v>Sanborns Bamer</v>
       </c>
       <c r="B115" t="str">
-        <v>Eje 5 Oriente, Av. Javier Rojo Gómez 66, San Pablo, Iztapalapa, 09000 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C115" t="str">
-        <v/>
+        <v>Av. Juarez 54, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C115">
+        <v>400</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Atlas Bowl</v>
+        <v>Churrería El Moro Parque Tepeyac</v>
       </c>
       <c r="B116" t="str">
-        <v>61 W Main St, Trumansburg, NY 14886, EE. UU.</v>
-      </c>
-      <c r="C116" t="str">
-        <v/>
+        <v>Eduardo Molina 6730, Granjas Modernas, Gustavo A. Madero, 07460 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C116">
+        <v>100</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Starbucks Grand San Jerónimo</v>
+        <v>Pizza del Perro Negro</v>
       </c>
       <c r="B117" t="str">
-        <v>Calle Iglesia 270, Tizapán San Ángel, Tizapán, Coyoacán, 01090 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C117" t="str">
-        <v/>
+        <v>C. Xicoténcatl 319, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C117">
+        <v>300</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>El Zirahuen</v>
+        <v>Butcher and Sons Polanco</v>
       </c>
       <c r="B118" t="str">
-        <v>Ermita Iztapalapa 258, Sinatel, Iztapalapa, 09470 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C118" t="str">
-        <v/>
+        <v>Virgilio 8-Local B, Polanco, Polanco III Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C118">
+        <v>600</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>La Casa de Toño en Madero</v>
+        <v>Stamina Games</v>
       </c>
       <c r="B119" t="str">
-        <v>20 Local 212-216 Alc, Av Francisco I. Madero, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C119" t="str">
-        <v/>
+        <v>Canal de Miramontes 3230, Coapa, Acoxpa, Tlalpan, 14300 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C119">
+        <v>85</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Monumental Burger</v>
+        <v>Taquería El Califa Universidad</v>
       </c>
       <c r="B120" t="str">
-        <v>Miguel Ramos Arizpe 38, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C120" t="str">
-        <v/>
+        <v>Av. Universidad 654, Letran Valle, Benito Juárez, 03650 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C120">
+        <v>350</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Pata Negra Histórico</v>
+        <v>Estatua A Totoquihuatzin</v>
       </c>
       <c r="B121" t="str">
-        <v>Av. 5 de Mayo 49, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C121" t="str">
-        <v/>
+        <v>C. de Filomeno Mata 6, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06040 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C121">
+        <v>300</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Maison Kayser Homero</v>
+        <v>Museo Soumaya</v>
       </c>
       <c r="B122" t="str">
-        <v>Av. Homero 1500, Polanco, Polanco II Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C122" t="str">
-        <v/>
+        <v>Blvd. Miguel de Cervantes Saavedra, Granada, Miguel Hidalgo, 11529 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Neko Café</v>
+        <v>Monumento a Cristóbal Colón</v>
       </c>
       <c r="B123" t="str">
-        <v>Capilla de los Reyes 60, Los Reyes, Azcapotzalco, 02010 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C123" t="str">
-        <v/>
+        <v>Esq Buenavista, Heroes Ferrocarrileros sn, Buenavista, Cuauhtémoc, 06350 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Tingo</v>
+        <v>Prendes</v>
       </c>
       <c r="B124" t="str">
-        <v>Av. del Rosal 39, Los Ángeles, Iztapalapa, 09830 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C124" t="str">
-        <v/>
+        <v>Moliere, Palacio de Hierro 222, Polanco, Polanco II Secc, Miguel Hidalgo, 05320 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C124">
+        <v>900</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Dolce Maria</v>
+        <v>Fuentes Brotantes de Tlalpan</v>
       </c>
       <c r="B125" t="str">
-        <v>Av. Unidad Modelo 30, Modelo, Iztapalapa, 09089 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C125" t="str">
-        <v/>
+        <v>Av de Las Fuentes, Fuentes Brotantes, Tlalpan, 14410 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Frida Gastronomía Mexicana</v>
+        <v>Xitle</v>
       </c>
       <c r="B126" t="str">
-        <v>C. Xicoténcatl 252, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C126" t="str">
-        <v/>
+        <v>Tlalpan, 14760 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C126">
+        <v>100</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Spartacu's</v>
+        <v>Parque Skate La Sede - Centro de Deporte Extremo</v>
       </c>
       <c r="B127" t="str">
-        <v>Av Cuauhtémoc 8, Maravillas, 57410 Cdad. Nezahualcóyotl, Méx.</v>
-      </c>
-      <c r="C127" t="str">
-        <v/>
+        <v>Calle 15 s/n, Iztapalapa, Calle 15 s/n, Iztapalapa, José López Portillo, Iztapalapa, 09920 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>SUKIYA Parque Alameda</v>
+        <v>La Pista Coyoacan</v>
       </c>
       <c r="B128" t="str">
-        <v>Av. Juarez 76, Colonia Centro, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C128" t="str">
-        <v/>
+        <v>Av. Miguel Ángel de Quevedo 247, Romero de Terreros, Coyoacán, 04318 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C128">
+        <v>600</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Parole | Restaurante Italiano en Polanco</v>
+        <v>Espadas Brasileñas De Boturini</v>
       </c>
       <c r="B129" t="str">
-        <v>Av. Emilio Castelar 163, Polanco, Polanco III Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C129" t="str">
-        <v/>
+        <v>Lorenzo Boturini 635, Jardín Balbuena, Venustiano Carranza, 15900 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C129">
+        <v>400</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Madero Restaurante</v>
+        <v>Palacio Postal</v>
       </c>
       <c r="B130" t="str">
-        <v>Av. Río Churubusco 583, Sector Popular, Popular, Iztapalapa, 09060 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C130" t="str">
-        <v/>
+        <v>C. de Tacuba 1, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C130">
+        <v>85</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Salón Tenampa</v>
+        <v>RUSH pool beer &amp; snack</v>
       </c>
       <c r="B131" t="str">
-        <v>Plaza Garibaldi 12, Centro, Cuauhtémoc, 06010 Centro, CDMX</v>
-      </c>
-      <c r="C131" t="str">
-        <v/>
+        <v>127 de, Francisco del Paso y Troncoso, Jardín Balbuena, Venustiano Carranza, 15900 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C131">
+        <v>300</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>RESTAURANTE MICHOACAN</v>
+        <v>El Globo Villas de Aragón</v>
       </c>
       <c r="B132" t="str">
-        <v>Av. División del Nte. 3451, El Rosario, Coyoacán, 04380 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C132" t="str">
-        <v/>
+        <v>Av. Central 20, Villa de Aragón, 07570 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C132">
+        <v>50</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>La Cervecería de Barrio - Universidad (Oficial)</v>
+        <v>Asado Brasil Plaza las Estrellas</v>
       </c>
       <c r="B133" t="str">
-        <v>Av. Universidad 645, Col del Valle Centro, Benito Juárez, 03100 Del. Benito Juárez, CDMX</v>
-      </c>
-      <c r="C133" t="str">
-        <v/>
+        <v>11300, Verónica Anzúres, Miguel Hidalgo, 11300 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Cielito Querido Café MIDE</v>
+        <v>Chili's Universidad 767</v>
       </c>
       <c r="B134" t="str">
-        <v>C. de Tacuba 17, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C134" t="str">
-        <v/>
+        <v>Av. Universidad 767, Col del Valle Sur, Benito Juárez, 03100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C134">
+        <v>400</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Amanda's Bistro/Café</v>
+        <v>Palacio del Marqués del Apartado</v>
       </c>
       <c r="B135" t="str">
-        <v>Museo 77, El Rosario, Coyoacán, 04380 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C135" t="str">
-        <v/>
+        <v>Palacio del Marqués del Apartado, República de Argentina 12, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06020 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Sears Polanco</v>
+        <v>Le Pain Quotidien</v>
       </c>
       <c r="B136" t="str">
-        <v>Av. Ejército Nacional Mexicano 980, Polanco, Polanco I Secc, Miguel Hidalgo, 11510 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C136" t="str">
-        <v/>
+        <v>Oscar Wilde 30, Polanco, Col. Chapultepec Polanco, Miguel Hidalgo, 11500 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C136">
+        <v>300</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Walmart Universidad</v>
+        <v>Nube 7 Restaurante</v>
       </c>
       <c r="B137" t="str">
-        <v>Av. Universidad 936 A, Sta Cruz Atoyac, Benito Juárez, 03310 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C137" t="str">
-        <v/>
+        <v>Centro Cultural Universitario. MUAC, Av. Insurgentes Sur 3000, C.U., Coyoacán, 04510 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C137">
+        <v>800</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Mr Bunny Universidad</v>
+        <v>Mythos Estiatorio</v>
       </c>
       <c r="B138" t="str">
-        <v>Av. Universidad 644A, Letran Valle, Benito Juárez, 03650 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C138" t="str">
-        <v/>
+        <v>Av. Isaac Newton 7, Polanco, Polanco IV Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C138">
+        <v>300</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Sanborns Universidad | Restaurante, Tienda y Farmacia</v>
+        <v>La Herradura</v>
       </c>
       <c r="B139" t="str">
-        <v>CENTRO COMERCIAL Plaza Universidad, Av. Universidad, Sta Cruz Atoyac, Benito Juárez, 03313 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C139" t="str">
-        <v/>
+        <v>Carr Toluca - México 1350, 52753 Méx.</v>
+      </c>
+      <c r="C139">
+        <v>200</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>El Mirador de Chapultepec</v>
+        <v>Pan Gabriel Coyoacán</v>
       </c>
       <c r="B140" t="str">
-        <v>Av Chapultepec 606, San Miguel Chapultepec I Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C140" t="str">
-        <v/>
+        <v>Berlín 222, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C140">
+        <v>150</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Vips Universidad</v>
+        <v>Sakura</v>
       </c>
       <c r="B141" t="str">
-        <v>Parroquia 1031, Sta Cruz Atoyac, Benito Juárez, 03313 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C141" t="str">
-        <v/>
+        <v>Eje Central Lázaro Cárdenas 13, Colonia Centro, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C141">
+        <v>150</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Brassi</v>
+        <v>Starbucks Universidad 767</v>
       </c>
       <c r="B142" t="str">
-        <v>Virgilio 8, Polanco, Polanco III Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C142" t="str">
-        <v/>
+        <v>Av. Universidad LK01 767, Col del Valle Sur, Benito Juárez, 03100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C142">
+        <v>100</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>La casa de Toño en Vista Norte</v>
+        <v>Starbucks Coyoacán Centro</v>
       </c>
       <c r="B143" t="str">
-        <v>Local SU-08, Col. Alc, Plaza Vista Norte, Av. Acueducto 650, Residencial Zacatenco, Gustavo A. Madero, 07369 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C143" t="str">
-        <v/>
+        <v>Ignacio Allende 5, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C143">
+        <v>100</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Potzollcalli Universidad</v>
+        <v>Cassava Roots Universidad</v>
       </c>
       <c r="B144" t="str">
-        <v>Av. Universidad 1874, Copilco Universidad, Coyoacán, 04310 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C144" t="str">
-        <v/>
+        <v>Av. Universidad 1000, Sta Cruz Atoyac, Benito Juárez, 03310 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C144">
+        <v>120</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Tierra Garat Blas Pascal</v>
+        <v>Mariposario Chapultepec</v>
       </c>
       <c r="B145" t="str">
-        <v>Av. Ejército Nacional Mexicano 1112-Planta baja, Polanco, Polanco I Secc, Miguel Hidalgo, 11510 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C145" t="str">
-        <v/>
+        <v>CRF6+5H, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11580 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Mafalda</v>
+        <v>Bar Chapultepec</v>
       </c>
       <c r="B146" t="str">
-        <v>Av Miguel Hidalgo 10, San Lucas, Coyoacán, 04030 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C146" t="str">
-        <v/>
+        <v>Av. Hidalgo 118, Centro Histórico de la Cdad. de México, Tabacalera, Cuauhtémoc, 06300 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C146">
+        <v>400</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>La Casa de los Abuelos Polanco</v>
+        <v>Café Andrade CDMX</v>
       </c>
       <c r="B147" t="str">
-        <v>Av Moliere 325, Polanco, Polanco II Secc, Miguel Hidalgo, 11540 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C147" t="str">
-        <v/>
+        <v>Plaza Comercial Yama Punta Museo, Av. División del Nte. 3572-Locales 10 y 11, San Pablo Tepetlapa, Coyoacán, 04620 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C147">
+        <v>150</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Santa Clara Narvarte</v>
+        <v>Restaurante Torino Santa Fe</v>
       </c>
       <c r="B148" t="str">
-        <v>Av. Universidad 343-A, Narvarte Poniente, Benito Juárez, 03023 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C148" t="str">
-        <v/>
+        <v>Vasco de Quiroga 3200, Santa Fe, Lomas de Sta Fé, Álvaro Obregón, 01210 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C148">
+        <v>700</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Government Club Polanco</v>
+        <v>La casa de Toño en Tlatelolco</v>
       </c>
       <c r="B149" t="str">
-        <v>local 6,7 y 8, Av. Pdte. Masaryk 393, Polanco, Polanco III Secc, Miguel Hidalgo, 05010 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C149" t="str">
-        <v/>
+        <v>Eje 2 Nte 5, San Simón Tolnahuac, Cuauhtémoc, 06920 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C149">
+        <v>250</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Domino's Zoológico de Chapultepec</v>
+        <v>Sala Interactiva de Astronomía</v>
       </c>
       <c r="B150" t="str">
-        <v>C. Lago San Pedro 1-A Secc. B, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11580 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C150" t="str">
-        <v/>
+        <v>Av. Wilfrido Massieu 253, Nueva Industrial Vallejo, Gustavo A. Madero, 07738 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C150">
+        <v>85</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Quesadillas Lucha</v>
+        <v>Casa Franciscana</v>
       </c>
       <c r="B151" t="str">
-        <v>C. Xicoténcatl local 323, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C151" t="str">
-        <v/>
+        <v>Jesús María 42, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C151">
+        <v>300</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Farina Polanco</v>
+        <v>Perros y Burros, Pabellón Cuauhtémoc</v>
       </c>
       <c r="B152" t="str">
-        <v>Av. Isaac Newton 53-1, Polanco, Polanco IV Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C152" t="str">
-        <v/>
+        <v>C. Antonio M. Anza 20, Centro Urbano Pdte. Juárez, Roma Sur, Cuauhtémoc, 06760 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C152">
+        <v>200</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Las Hijas de la Tostada Polanco</v>
+        <v>El Mayor</v>
       </c>
       <c r="B153" t="str">
-        <v>planta baja, Blvd. Miguel de Cervantes Saavedra 301, Granada, Miguel Hidalgo, 11520 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C153" t="str">
-        <v/>
+        <v>República de Argentina 15, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06020 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C153">
+        <v>600</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Sanborns Madero | Restaurante, Tienda y Farmacia</v>
+        <v>Parque Lincoln</v>
       </c>
       <c r="B154" t="str">
-        <v>Av Francisco I. Madero 4, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06500 Ejido del Centro, CDMX</v>
-      </c>
-      <c r="C154" t="str">
-        <v/>
+        <v>Av. Emilio Castelar 163, Polanco, Polanco III Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Biblioteca del Piloto café</v>
+        <v>Chaarm by 42</v>
       </c>
       <c r="B155" t="str">
-        <v>Av. Pdte. Plutarco Elías Calles 1050, Reforma Iztaccihuatl Nte., Iztacalco, 08810 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C155" t="str">
-        <v/>
+        <v>Av. Tamaulipas 130, Hipódromo, Cuauhtémoc, 06100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C155">
+        <v>199</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Carnitas Morales</v>
+        <v>El Zoo</v>
       </c>
       <c r="B156" t="str">
-        <v>Museo S/N Esq Hidalgo, Estudiantes de 1968, Coyoacán, 04380 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C156" t="str">
-        <v/>
+        <v>14030, 2a. Nte. 40, Isidro Fabela, Tlalpan, 14030 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Vans Universidad</v>
+        <v>TEMPLO CDMX</v>
       </c>
       <c r="B157" t="str">
-        <v>Plaza Universidad Av. Universidad No. 1000 Local B 185 - 186, Sta Cruz Atoyac, Benito Juárez, 03310 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C157" t="str">
-        <v/>
+        <v>C. Artículo 123 15, Colonia Centro, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C157">
+        <v>150</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Sears Centro Histórico</v>
+        <v>Tepeyac hill sightsee point</v>
       </c>
       <c r="B158" t="str">
-        <v>Av. Juarez 14, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C158" t="str">
-        <v/>
+        <v>Cerro de Guerrero, Gustavo A. Madero, 07060 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C158">
+        <v>85</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>La Casa de Toño</v>
+        <v>Vips San Rafael</v>
       </c>
       <c r="B159" t="str">
-        <v>Av. Guillermo Massieu Helguera 86, La Purísima Ticoman, Gustavo A. Madero, 07320 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C159" t="str">
-        <v/>
+        <v>Insurgentes Centro 67, San Rafael, Cuauhtémoc, 06470 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C159">
+        <v>250</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Hooters Polanco</v>
+        <v>Terraza karaoke</v>
       </c>
       <c r="B160" t="str">
-        <v>Loc. L-A, Av Moliere 353, Polanco, Polanco III Secc, Miguel Hidalgo, 11540 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C160" t="str">
-        <v/>
+        <v>Av Chapultepec 400, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Restaurante Peña Grill</v>
+        <v>Villa María</v>
       </c>
       <c r="B161" t="str">
-        <v>Av. Genaro Estrada 53, Jacarandas, Iztapalapa, 09690 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C161" t="str">
-        <v/>
+        <v>Av. Homero 704, Polanco, Polanco IV Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C161">
+        <v>600</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>La Oaxaqueña</v>
+        <v>Saudade Do Brazil</v>
       </c>
       <c r="B162" t="str">
-        <v>Teniente Roberto Gómez Moreno 404, Escuadrón 201, Iztapalapa, 09060 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C162" t="str">
-        <v/>
+        <v>Anaxágoras 743, Narvarte Poniente, Benito Juárez, 03020 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C162">
+        <v>300</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Cafebrería El Péndulo</v>
+        <v>Sanborns Centenario</v>
       </c>
       <c r="B163" t="str">
-        <v>Av. Álvaro Obregón 86, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C163" t="str">
-        <v/>
+        <v>Parque Centenario 5, Del Carmen, Coyoacán, 04000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C163">
+        <v>400</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>EL DIEZ LA NUEVA</v>
+        <v>Sanborns Plaza Carso</v>
       </c>
       <c r="B164" t="str">
-        <v>Calle Clavelinas 133, Nueva Santa María, Azcapotzalco, 02800 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C164" t="str">
-        <v/>
+        <v>C. Lago Zurich 245, Amp Granada, Miguel Hidalgo, 11529 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C164">
+        <v>250</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>BOLIBAR Bar - Botanas &amp; Boliche</v>
+        <v>La Vaka Las Antenas</v>
       </c>
       <c r="B165" t="str">
-        <v>Cto Plaza Esmeralda 13, Bosque Esmeralda, 52937 Cdad. López Mateos, Méx.</v>
-      </c>
-      <c r="C165" t="str">
-        <v/>
+        <v>Av. Canal de Garay 3278, La Esperanza, Iztapalapa, 09910 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C165">
+        <v>450</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Rockets Planet - Plaza Coacalco - Pizza, Boliche, Bar y Videojuegos.</v>
+        <v>Aragon Burger</v>
       </c>
       <c r="B166" t="str">
-        <v>Av. José López Portillo 220, Plaza coacalco, 55710 San Francisco Coacalco, Méx.</v>
-      </c>
-      <c r="C166" t="str">
-        <v/>
+        <v>Av 604 229, San Juan de Aragón V Secc, Gustavo A. Madero, 07979 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C166">
+        <v>200</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Walmart Paraíso Cuernavaca</v>
+        <v>Moshi Moshi Antara</v>
       </c>
       <c r="B167" t="str">
-        <v>Kiosco SC 3588, Libramiento El Diez Temixco, Morelos 144 Colonia, Miguel Hidalgo, 62585 Temixco, Mor.</v>
-      </c>
-      <c r="C167" t="str">
-        <v/>
+        <v>Av. Ejército Nacional Mexicano 843-B, Granada, Miguel Hidalgo, 11520 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C167">
+        <v>700</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Los Arcos. Acueducto</v>
+        <v>Zoológico San Juan de Aragón</v>
       </c>
       <c r="B168" t="str">
-        <v>Calle Melchor Ocampo 100, Gualupita, 62280 Cuernavaca, Mor.</v>
-      </c>
-      <c r="C168" t="str">
-        <v/>
+        <v>Av. José Loreto Fabela S/N, Zoológico de San Juan de Aragón, Gustavo A. Madero, 07920 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Marisqueria Huatulco</v>
+        <v>Antojitos Mexicanos La Almendrita</v>
       </c>
       <c r="B169" t="str">
-        <v>Juan de La Barrera 29, Hank González, Iztapalapa, 09750 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C169" t="str">
-        <v/>
+        <v>Ayuntamiento 37, San Pablo, Iztapalapa, 09000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C169">
+        <v>150</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Toks</v>
+        <v>Hong King Restaurante Bar</v>
       </c>
       <c r="B170" t="str">
-        <v>Av. Marina Nacional 60-PB-104, Tacuba, Miguel Hidalgo, 11410 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C170" t="str">
-        <v/>
+        <v>Cjon. Dolores 25 A, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C170">
+        <v>250</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Italianni's Del Valle</v>
+        <v>Canta Bar London Karaoke</v>
       </c>
       <c r="B171" t="str">
-        <v>Av. Universidad 740, Sta Cruz Atoyac, Benito Juárez, 03310 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C171" t="str">
-        <v/>
+        <v>Londres 167 3piso entre calle florencia ロンドン, Juárez, Cuauhtémoc, 06600 juarez, CDMX</v>
+      </c>
+      <c r="C171">
+        <v>100</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>El Ocho</v>
+        <v>MIDE, Museo Interactivo de Economía</v>
       </c>
       <c r="B172" t="str">
-        <v>Av México 111, Hipódromo, Cuauhtémoc, 06100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C172" t="str">
-        <v/>
+        <v>C. de Tacuba 17, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C172">
+        <v>85</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>La Azotea</v>
+        <v>Café Toscano Parque Mèxico</v>
       </c>
       <c r="B173" t="str">
-        <v>Calle Dr Mora 9-4to piso, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C173" t="str">
-        <v/>
+        <v>Av Michoacán 30, Hipódromo, Cuauhtémoc, 06100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C173">
+        <v>250</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Vegamo</v>
+        <v>Sendero del Jaguar</v>
       </c>
       <c r="B174" t="str">
-        <v>Revillagigedo 47, Colonia Centro, Centro, Cuauhtémoc, 06070 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C174" t="str">
-        <v/>
+        <v>Zoológico de San Juan de Aragón, Gustavo A. Madero, 07920 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C174">
+        <v>250</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Terraza Dos Equis</v>
+        <v>Starbucks Bosques de Aragón</v>
       </c>
       <c r="B175" t="str">
-        <v>Isabel La Católica 68, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06080 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C175" t="str">
-        <v/>
+        <v>Av. 510 340, Pueblo de San Juan de Aragón, Gustavo A. Madero, 07950 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C175">
+        <v>100</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Pan de Azucar Maid's café</v>
+        <v>INBA Museo Nacional de Arquitectura</v>
       </c>
       <c r="B176" t="str">
-        <v>Bugambilia 41, Xaltocan, Xochimilco, 16090 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C176" t="str">
-        <v/>
+        <v>Av. Juarez 1, Colonia Centro, Centro, Cuauhtémoc, 06050 Cuahtemoc, CDMX</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>La Iglesia del Señor</v>
+        <v>Parque Masayoshi Ohira</v>
       </c>
       <c r="B177" t="str">
-        <v>Prol. Tlahuicas 15, San Francisco Culhuacan, Culhuacan CTM V, Coyoacán, 04260 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C177" t="str">
-        <v/>
+        <v>Corredores, Country Club Churubusco, Coyoacán, 04220 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Pujol</v>
+        <v>Jardín Chapultepec</v>
       </c>
       <c r="B178" t="str">
-        <v>Tennyson 133, Polanco, Polanco IV Secc, Miguel Hidalgo, 11570 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C178" t="str">
-        <v/>
+        <v>Av Chapultepec 398, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>La Antigua bodega</v>
+        <v>El Callejón Café</v>
       </c>
       <c r="B179" t="str">
-        <v>Eje 5 Sur 64, Paseos de Churubusco, Iztapalapa, 09030 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C179" t="str">
-        <v/>
+        <v>Calle del 57 4-Local 5, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C179">
+        <v>150</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Lovecraft Café</v>
+        <v>The Grill Aragón</v>
       </c>
       <c r="B180" t="str">
-        <v>Calle 1325 #40 esquina, Lorenzo Boturini, Colonia Del Parque, Lorenzo Boturini, Venustiano Carranza, 15960 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C180" t="str">
-        <v/>
+        <v>Av. José Loreto Fabela 20, San Juan de Aragón II Secc, Gustavo A. Madero, 07969 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C180">
+        <v>400</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Casa Licha Pozole</v>
+        <v>Bowlero Polanco</v>
       </c>
       <c r="B181" t="str">
-        <v>Sur 69-A 513, Justo Sierra, Iztapalapa, 09460 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C181" t="str">
-        <v/>
+        <v>Juan Vazquez de Mella 315, Polanco, Chapultepec Morales, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C181">
+        <v>85</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Klein's Polanco</v>
+        <v>Marisquería el K-Guamo</v>
       </c>
       <c r="B182" t="str">
-        <v>Av. Pdte. Masaryk 360B, Polanco, Polanco III Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C182" t="str">
-        <v/>
+        <v>Av Independencia 22, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C182">
+        <v>250</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>La Casa de Toño en Polanco</v>
+        <v>Restaurante Carnivurus sucursal Iztacalco</v>
       </c>
       <c r="B183" t="str">
-        <v>José Luis Lagrange S/N, Polanco, Polanco I Secc, Miguel Hidalgo, 11510 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C183" t="str">
-        <v/>
+        <v>Playa Encantada 154, Militar Marte, Iztacalco, 08830 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C183">
+        <v>350</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>La Morera Mercado Masaryk</v>
+        <v>Sanborns Buenavista</v>
       </c>
       <c r="B184" t="str">
-        <v>Av. F. C. de Cuernavaca esquina presidente Masaryk, Polanco, Polanco, Polanco I Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C184" t="str">
-        <v/>
+        <v>Av. Insurgentes Nte. 70, Sta María la Ribera, Cuauhtémoc, 06400 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C184">
+        <v>400</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Cielito Querido Café Marina Park</v>
+        <v>La Milla</v>
       </c>
       <c r="B185" t="str">
-        <v>Av. Marina Nacional 60, Tacuba, Miguel Hidalgo, 11410 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C185" t="str">
-        <v/>
+        <v>Calle Gral. Fco. Molinos del Campo 19-Local A, San Miguel Chapultepec I Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C185">
+        <v>150</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Sushi Itto Universidad 767</v>
+        <v>Pescados y Mariscos Tío Froy</v>
       </c>
       <c r="B186" t="str">
-        <v>Av. Universidad 767, Col del Valle Sur, Benito Juárez, 03104 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C186" t="str">
-        <v/>
+        <v>Benito Juárez 23, San Lorenzo, Iztapalapa, 09900 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C186">
+        <v>350</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Hooters Universidad</v>
+        <v>Tres Coyotes</v>
       </c>
       <c r="B187" t="str">
-        <v>Av. Universidad 734, Letran Valle, Benito Juárez, 03650 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C187" t="str">
-        <v/>
+        <v>Ignacio Aldama 2, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C187">
+        <v>250</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Hacienda de los Morales</v>
+        <v>Pizza Felix</v>
       </c>
       <c r="B188" t="str">
-        <v>Juan Vazquez de Mella 525, Polanco, Polanco I Secc, Miguel Hidalgo, 11510 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C188" t="str">
-        <v/>
+        <v>Av. Álvaro Obregón 64, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C188">
+        <v>100</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>SUKIYA Av. Universidad</v>
+        <v>Tacos Don Manolito</v>
       </c>
       <c r="B189" t="str">
-        <v>Av. Universidad 749, Col del Valle Sur, Benito Juárez, 03100 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C189" t="str">
-        <v/>
+        <v>Aguayo 49, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C189">
+        <v>200</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Restaurante Don Toribio</v>
+        <v>Aranzazu Universidad</v>
       </c>
       <c r="B190" t="str">
-        <v>Simón Bolívar 31, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C190" t="str">
-        <v/>
+        <v>Av. Universidad 716-Local 1, Narvarte Poniente, Benito Juárez, 03650 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C190">
+        <v>300</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Urban Zone</v>
+        <v>Cafebrería El Péndulo Polanco</v>
       </c>
       <c r="B191" t="str">
-        <v>Calz Melchor Ocampo 193-Local E-10, Verónica Anzúres, Miguel Hidalgo, 11300 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C191" t="str">
-        <v/>
+        <v>Alejandro Dumas 81, Polanco, Polanco IV Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C191">
+        <v>400</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Kolobok Universidad</v>
+        <v>El Globo San Juan de Aragón</v>
       </c>
       <c r="B192" t="str">
-        <v>Avenida Universidad 538 Casi esquina con, Eje 6 Sur, Letran Valle, Benito Juárez, 03650 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C192" t="str">
-        <v/>
+        <v>Av. 502 242, Pueblo de San Juan de Aragón, Gustavo A. Madero, 07950 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C192">
+        <v>50</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Cine Tonalá</v>
+        <v>LIDS San Mateo Topilejo</v>
       </c>
       <c r="B193" t="str">
-        <v>Tonalá 261, Roma Sur, Cuauhtémoc, 06760 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C193" t="str">
-        <v/>
+        <v>Carr. a Topilejo, Guadalupe, Xochimilco, 16866 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Starbucks Plaza Carso I</v>
+        <v>El Japonez</v>
       </c>
       <c r="B194" t="str">
-        <v>C. Lago Zurich s/n, Amp Granada, Miguel Hidalgo, 11529 Ciudad de México, CDMX</v>
-      </c>
-      <c r="C194" t="str">
-        <v/>
+        <v>Av. Emilio Castelar 135, Polanco, Polanco III Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C194">
+        <v>800</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
+        <v>Saks Polanco</v>
+      </c>
+      <c r="B195" t="str">
+        <v>11560 Campos Eliseos, Lamartine 133, Chapultepec Morales, esq, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C195">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>El Desván Universidad</v>
+      </c>
+      <c r="B196" t="str">
+        <v>Av. Universidad 837, Col del Valle Sur, Benito Juárez, 03100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C196">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Cantina Salón Florida</v>
+      </c>
+      <c r="B197" t="str">
+        <v>Av. Tlahuac 825, Culhuacan, Iztapalapa, 09800 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C197">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Museo de Cera</v>
+      </c>
+      <c r="B198" t="str">
+        <v>Londres 6, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Peltre Lonchería Polanco</v>
+      </c>
+      <c r="B199" t="str">
+        <v>Esquina Horacio con, Petrarca 253, Polanco, Polanco V Secc, Miguel Hidalgo, 11570 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C199">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Monte Cristo</v>
+      </c>
+      <c r="B200" t="str">
+        <v>Av. Insurgentes Nte. 1980, Lindavista, Gustavo A. Madero, 07300 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C200">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>La Capilla Restaurante &amp; Bar</v>
+      </c>
+      <c r="B201" t="str">
+        <v>Av. 5 de Mayo 39, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C201">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Terraza Azul</v>
+      </c>
+      <c r="B202" t="str">
+        <v>Av. Unidad Modelo 63, Modelo, Iztapalapa, 09089 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C202">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Museo Nacional de Historia Castillo de Chapultepec</v>
+      </c>
+      <c r="B203" t="str">
+        <v>Bosque de Chapultepec I Secc, Miguel Hidalgo, 11580 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Reloj Otomano</v>
+      </c>
+      <c r="B204" t="str">
+        <v>Calle de Bolívar 37, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C204">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Parque Xalli</v>
+      </c>
+      <c r="B205" t="str">
+        <v>Camino al Tetecon, Tetecontitlan s/n, San Miguel Zapotitla, Tláhuac, 13310 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>El Jaibol Universidad</v>
+      </c>
+      <c r="B206" t="str">
+        <v>Av. Universidad 644, Letran Valle, Benito Juárez, 03650 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C206">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>A Dios Le Pido</v>
+      </c>
+      <c r="B207" t="str">
+        <v>C. Génova 21, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C207">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Monumento a Colón</v>
+      </c>
+      <c r="B208" t="str">
+        <v>Monumento a Cristóbal Colón, Monumento a Cristóbal Colón, Av. P.º de la Reforma 96, Tabacalera, Cuauhtémoc, 06600 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>¡Recórcholis! Fórum Buenavista</v>
+      </c>
+      <c r="B209" t="str">
+        <v>Eje 1 Nte. 259, Buenavista, Cuauhtémoc, 06350 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Templo Hare Krishna Mexico D.F.</v>
+      </c>
+      <c r="B210" t="str">
+        <v>Gobernador Tiburcio Montiel 45, San Miguel Chapultepec I Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C210">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>TERRAZA CORONELA</v>
+      </c>
+      <c r="B211" t="str">
+        <v>C. Valentín Gómez Farías 2-piso 5, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C211">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Restaurante 5 Portes</v>
+      </c>
+      <c r="B212" t="str">
+        <v>Calz. Manuel Villalongín 157, Cuauhtémoc, 06500 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C212">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>LA OPERA</v>
+      </c>
+      <c r="B213" t="str">
+        <v>Av. 5 de Mayo 10, Centro Histórico de la Cdad. de México, de la, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C213">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Limantour</v>
+      </c>
+      <c r="B214" t="str">
+        <v>Oscar Wilde 9, Polanco, Polanco III Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C214">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Los Tamalitos de Balbuena</v>
+      </c>
+      <c r="B215" t="str">
+        <v>Estacionamiento iglesia san felipe neri, Jardín Balbuena, Venustiano Carranza, 15900 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C215">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Los Baristas</v>
+      </c>
+      <c r="B216" t="str">
+        <v>Circuito Escolar, Copilco Universidad, C.U., Coyoacán, 04510 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C216">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Galería Hilario Galguera</v>
+      </c>
+      <c r="B217" t="str">
+        <v>C. Francisco Pimentel 3, San Rafael, Cuauhtémoc, 06470 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C217">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Museo Palacio Postal</v>
+      </c>
+      <c r="B218" t="str">
+        <v>C. de Tacuba 1, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C218">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Starbucks</v>
+      </c>
+      <c r="B219" t="str">
+        <v>Av. P.º de la Reforma s/n, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C219">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>RESTAURANTE BAR LAS PECOSAS</v>
+      </c>
+      <c r="B220" t="str">
+        <v>República de Cuba 23 - E, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06020 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C220">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>La Soldadera</v>
+      </c>
+      <c r="B221" t="str">
+        <v>Av. de la República 157, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C221">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>ROCA ENTERPRISES</v>
+      </c>
+      <c r="B222" t="str">
+        <v>Av Constituyentes 5, San Miguel Chapultepec II Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C222">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Mog Bistro</v>
+      </c>
+      <c r="B223" t="str">
+        <v>Frontera 168, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C223">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>JAYI Restaurante</v>
+      </c>
+      <c r="B224" t="str">
+        <v>Medellín 81, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C224">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Botánico</v>
+      </c>
+      <c r="B225" t="str">
+        <v>Alfonso Reyes 217, Colonia Condesa, Cuauhtémoc, 06100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C225">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>Phoenix Arcades</v>
+      </c>
+      <c r="B226" t="str">
+        <v>Av. Cuauhtémoc 19, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C226">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Bisquets Obregón</v>
+      </c>
+      <c r="B227" t="str">
+        <v>Av. Universidad 319, Narvarte Poniente, Benito Juárez, 03020 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C227">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Wokando Cocina Casual</v>
+      </c>
+      <c r="B228" t="str">
+        <v>C. Versalles 15, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C228">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Pizzeria MALA SAÑA</v>
+      </c>
+      <c r="B229" t="str">
+        <v>Regina 49, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C229">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Sabor do Brasil Misterios</v>
+      </c>
+      <c r="B230" t="str">
+        <v>Av. Río Blanco 27, Industrial, Gustavo A. Madero, 07800 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Hemiciclo a Benito Juárez</v>
+      </c>
+      <c r="B231" t="str">
+        <v>Av. Juarez 50, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C231">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Ice Mountain RENTA de Pistas de Hielo temporales.</v>
+      </c>
+      <c r="B232" t="str">
+        <v>Viad. Tlalpan 28, Coapa, Huipulco, Tlalpan, 14370 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C232">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Restaurante Azul Maguey</v>
+      </c>
+      <c r="B233" t="str">
+        <v>Ignacio Allende 53, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C233">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Rebel wings punta museo</v>
+      </c>
+      <c r="B234" t="str">
+        <v>Av. División del Nte. 3556, San Pablo Tepetlapa, Coyoacán, 04620 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C234">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Ex Templo de Corpus Christi</v>
+      </c>
+      <c r="B235" t="str">
+        <v>Av. Juarez 44, Colonia Centro, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>La Isla Del Dragón</v>
+      </c>
+      <c r="B236" t="str">
+        <v>C. de Filomeno Mata 15, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C236">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Tierra Garat Londres</v>
+      </c>
+      <c r="B237" t="str">
+        <v>Londres 361, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C237">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Croasan</v>
+      </c>
+      <c r="B238" t="str">
+        <v>Ignacio Allende 168, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C238">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Zona gamers 2.0</v>
+      </c>
+      <c r="B239" t="str">
+        <v>Eje central 9 Frikiplaza 4 piso local 412, Colonia Centro, Centro, Cuauhtémoc, 01000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C239">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Círculo 99 Billar &amp; Café Obrera</v>
+      </c>
+      <c r="B240" t="str">
+        <v>Eje Central Lázaro Cárdenas 248, Obrera, Cuauhtémoc, 06800 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C240">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Jardín Louis Pasteur</v>
+      </c>
+      <c r="B241" t="str">
+        <v>Av. P.º de la Reforma 135, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C241">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Casa de los Azulejos</v>
+      </c>
+      <c r="B242" t="str">
+        <v>Av Francisco I. Madero 4, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06500 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C242">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Lafricaine</v>
+      </c>
+      <c r="B243" t="str">
+        <v>Av Instituto Politécnico Nacional 5119, Capultitlan, Gustavo A. Madero, 07370 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C243">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Sears Universidad</v>
+      </c>
+      <c r="B244" t="str">
+        <v>Av. Universidad 1000, Sta Cruz Atoyac, Benito Juárez, 03310 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Templo de Nuestra Señora de Guadalupe (Buen Tono)</v>
+      </c>
+      <c r="B245" t="str">
+        <v>Plaza de San Juan 15, Colonia Centro, Centro, Cuauhtémoc, 06070 Cuauhtémoc, CDMX</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>El Rincón del Parque</v>
+      </c>
+      <c r="B246" t="str">
+        <v>Matías Romero 1114, Col del Valle Centro, Benito Juárez, 03100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C246">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Acuario Interactivo</v>
+      </c>
+      <c r="B247" t="str">
+        <v>C. Lago Zurich 386, Granada, Miguel Hidalgo, 11529 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C247">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>P.F. Chang's Patio Universidad</v>
+      </c>
+      <c r="B248" t="str">
+        <v>Av. Popocatépetl, esq. Universidad 546, Xoco, Benito Juárez, 03330 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C248">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Skatepark San Antonio Abad</v>
+      </c>
+      <c r="B249" t="str">
+        <v>Tránsito, Cuauhtémoc, 06820 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C249">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Elizondo Polanco</v>
+      </c>
+      <c r="B250" t="str">
+        <v>Av. Ejército Nacional Mexicano 963, Col. Irrigación, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C250">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Parroquia de San Juan de Dios</v>
+      </c>
+      <c r="B251" t="str">
+        <v>Av. Hidalgo 51, Centro Histórico de la Cdad. de México, Guerrero, Cuauhtémoc, 06300 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C251">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Pan &amp; Anís (Antigua Casa del Chef)</v>
+      </c>
+      <c r="B252" t="str">
+        <v>C. Gobernador Rafael Rebollar 77, San Miguel Chapultepec I Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C252">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Domino's Kidzania Cd. de los Niños Cuicuilco</v>
+      </c>
+      <c r="B253" t="str">
+        <v>Av. San Fernando, Cjon. de Peña Pobre 649, Manantial Peña Pobre, Tlalpan, 14060 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C253">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>El Camarón Guasaveño Ermita</v>
+      </c>
+      <c r="B254" t="str">
+        <v>Ermita Iztapalapa 2813, Sta Cruz Meyehualco, Iztapalapa, 09700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C254">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Sal e Brasa</v>
+      </c>
+      <c r="B255" t="str">
+        <v>Av. de los Insurgentes Sur 744, Col. Del Valle, Benito Juárez, 03103 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C255">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>Centro Roller CDMX</v>
+      </c>
+      <c r="B256" t="str">
+        <v>Av. Insurgentes Sur 375-B, Hipódromo Condesa, Cuauhtémoc, 06100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C256">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>Primer Cuadro Steak House</v>
+      </c>
+      <c r="B257" t="str">
+        <v>P.za de la Constitución 13, Centro Histórico de la Cdad. de México, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C257">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Sport&amp;chips Coyoacán</v>
+      </c>
+      <c r="B258" t="str">
+        <v>Avenida Miguel Ángel de Quevedo, San Andrés 1144, Parque San Andrés, Coyoacán, 04040 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C258">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>EL POLANQUITO</v>
+      </c>
+      <c r="B259" t="str">
+        <v>Oscar Wilde 21, Polanco, Polanco III Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C259">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>El Bajío Polanco</v>
+      </c>
+      <c r="B260" t="str">
+        <v>Alejandro Dumas 7, Polanco, Polanco IV Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C260">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>Templo de San Agustín de Hipona</v>
+      </c>
+      <c r="B261" t="str">
+        <v>República de El Salvador 76, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>Balcón del Zócalo</v>
+      </c>
+      <c r="B262" t="str">
+        <v>Av. 5 de Mayo 61, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C262">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>La Vienet</v>
+      </c>
+      <c r="B263" t="str">
+        <v>Viena 114, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C263">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>Café Central Park</v>
+      </c>
+      <c r="B264" t="str">
+        <v>Av. Baja California 23, Roma Sur, Cuauhtémoc, 06760 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C264">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>Bistró Chapultepec</v>
+      </c>
+      <c r="B265" t="str">
+        <v>Calle Lago Mayor S/N, 2ª Sección del Bosque de Chapultepec, Bosque de Chapultepec II Secc, Miguel Hidalgo, 11040 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>Archiebald</v>
+      </c>
+      <c r="B266" t="str">
+        <v>JW Marriott Polanco entrada Campos Elíseos, Andrés Bello 29, Polanco, Polanco IV Secc, Miguel Hidalgo, 11560 CDMX</v>
+      </c>
+      <c r="C266">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Librerías El Sótano Bellas Artes</v>
+      </c>
+      <c r="B267" t="str">
+        <v>Av. Juarez 20, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>Círculo 99 Billar &amp; Café</v>
+      </c>
+      <c r="B268" t="str">
+        <v>Eje Central Lázaro Cárdenas 559, Narvarte Oriente, Benito Juárez, 03023 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C268">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>Basílica de San José y Nuestra Señora del Sagrado Corazón</v>
+      </c>
+      <c r="B269" t="str">
+        <v>Ayuntamiento 29, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C269">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Buffet Océano Cantonés</v>
+      </c>
+      <c r="B270" t="str">
+        <v>Isabel La Católica 6, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C270">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>El Refugio del Mosco</v>
+      </c>
+      <c r="B271" t="str">
+        <v>Eje 5 Oriente, Av. Javier Rojo Gómez 66, San Pablo, Iztapalapa, 09000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C271">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>Restaurante Acuario</v>
+      </c>
+      <c r="B272" t="str">
+        <v>Av. Belisario Domínguez 76, San Gregorio Atlapulco, Xochimilco, 16600 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C272">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>TEMPLO EVANGÉLICO "ROSTRO DE DIOS" MIEPI CENTRAL</v>
+      </c>
+      <c r="B273" t="str">
+        <v>Cda. Carretones 123, La Merced, Centro, Venustiano Carranza, 15100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>Museo de Arte Popular</v>
+      </c>
+      <c r="B274" t="str">
+        <v>Revillagigedo 11, Colonia Centro, Centro, Cuauhtémoc, 06050 Cuauhtémoc, CDMX</v>
+      </c>
+      <c r="C274">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>Starbucks Grand San Jerónimo</v>
+      </c>
+      <c r="B275" t="str">
+        <v>Calle Iglesia 270, Tizapán San Ángel, Tizapán, Coyoacán, 01090 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C275">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>El Zirahuen</v>
+      </c>
+      <c r="B276" t="str">
+        <v>Ermita Iztapalapa 258, Sinatel, Iztapalapa, 09470 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C276">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>La Casa de Toño en Madero</v>
+      </c>
+      <c r="B277" t="str">
+        <v>20 Local 212-216 Alc, Av Francisco I. Madero, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C277">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>Templo de Santo Domingo de Guzmán</v>
+      </c>
+      <c r="B278" t="str">
+        <v>Belisario Domínguez S/N, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C278">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>Cantina Las Bohemias</v>
+      </c>
+      <c r="B279" t="str">
+        <v>Londres 142-1, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C279">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>Caipirinha Balbuena</v>
+      </c>
+      <c r="B280" t="str">
+        <v>Blvd. Puerto Aéreo 47, Ignacio Zaragoza, Venustiano Carranza, 15000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C280">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>¡Kataplum!</v>
+      </c>
+      <c r="B281" t="str">
+        <v>Av. Canal de Garay 3278-3er piso, Tulyehualco Canal de Garay, Iztapalapa, 09910 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C281">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>Ling Ling by Hakkasan</v>
+      </c>
+      <c r="B282" t="str">
+        <v>Av. P.º de la Reforma 509-Piso 56, Cuauhtémoc, 06500 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C282">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>La Pista</v>
+      </c>
+      <c r="B283" t="str">
+        <v>Centro Comercial Paseo Interlomas Vialidad de la barranca 6 PH-01 Interlomas Huixquilucan, Manzana 003, Col. Ex Hacienda Jesús del Monte, Bosque de las Palmas, 52763 Naucalpan de Juárez, Méx.</v>
+      </c>
+      <c r="C283">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>Monumental Burger</v>
+      </c>
+      <c r="B284" t="str">
+        <v>Miguel Ramos Arizpe 38, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C284">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>El Campirano Centro</v>
+      </c>
+      <c r="B285" t="str">
+        <v>Calle de Bolívar 20, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06040 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C285">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>Bar Oriente</v>
+      </c>
+      <c r="B286" t="str">
+        <v>Dgo. 181, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C286">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>Pata Negra Histórico</v>
+      </c>
+      <c r="B287" t="str">
+        <v>Av. 5 de Mayo 49, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C287">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>ACUARIO ROSARIO</v>
+      </c>
+      <c r="B288" t="str">
+        <v>Herreros 1, El Rosario, Azcapotzalco, 02100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C288">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>Maison Kayser Homero</v>
+      </c>
+      <c r="B289" t="str">
+        <v>Av. Homero 1500, Polanco, Polanco II Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C289">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>Altar a la Patria</v>
+      </c>
+      <c r="B290" t="str">
+        <v>Bosque de Chapultepec I, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11580 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C290">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>Neko Café</v>
+      </c>
+      <c r="B291" t="str">
+        <v>Capilla de los Reyes 60, Los Reyes, Azcapotzalco, 02010 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C291">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>Tingo</v>
+      </c>
+      <c r="B292" t="str">
+        <v>Av. del Rosal 39, Los Ángeles, Iztapalapa, 09830 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C292">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>Casa Tassel</v>
+      </c>
+      <c r="B293" t="str">
+        <v>Córdoba 110, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C293">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>Wingstop Parque Alameda</v>
+      </c>
+      <c r="B294" t="str">
+        <v>Av. Juarez 76, Colonia Centro, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C294">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>Panda Café</v>
+      </c>
+      <c r="B295" t="str">
+        <v>Ventura G.Tena 231, Asturias, Cuauhtémoc, 06850 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C295">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>Dolce Maria</v>
+      </c>
+      <c r="B296" t="str">
+        <v>Av. Unidad Modelo 30, Modelo, Iztapalapa, 09089 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C296">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>Bosque de Chapultepec</v>
+      </c>
+      <c r="B297" t="str">
+        <v>Miguel Hidalgo, Ciudad de México, CDMX</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>Frida Gastronomía Mexicana</v>
+      </c>
+      <c r="B298" t="str">
+        <v>C. Xicoténcatl 252, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C298">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>Spartacu's</v>
+      </c>
+      <c r="B299" t="str">
+        <v>Av Cuauhtémoc 8, Maravillas, 57410 Cdad. Nezahualcóyotl, Méx.</v>
+      </c>
+      <c r="C299">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>Museo del Palacio de Bellas Artes</v>
+      </c>
+      <c r="B300" t="str">
+        <v>Av. Juárez s/n esq, Eje Central Lázaro Cárdenas Col, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>El Palomazo Bar &amp; Canto</v>
+      </c>
+      <c r="B301" t="str">
+        <v>Av. Universidad 348, Narvarte Poniente, Benito Juárez, 03023 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>SUKIYA Parque Alameda</v>
+      </c>
+      <c r="B302" t="str">
+        <v>Av. Juarez 76, Colonia Centro, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C302">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>Librerías Gandhi</v>
+      </c>
+      <c r="B303" t="str">
+        <v>Av Francisco I. Madero 32, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C303">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>Casa De Arte</v>
+      </c>
+      <c r="B304" t="str">
+        <v>Ignacio Allende 3, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>Cosmovitral Jardín Botánico</v>
+      </c>
+      <c r="B305" t="str">
+        <v>Av. Sebastián Lerdo de Tejada S/N, Centro, 50000 Toluca de Lerdo, Méx.</v>
+      </c>
+      <c r="C305">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>2do Mirador - Los Columpios</v>
+      </c>
+      <c r="B306" t="str">
+        <v>6RX2+7G, Tlalpan, 14700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C306">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>Arena Sports Bar</v>
+      </c>
+      <c r="B307" t="str">
+        <v>Oso 73-Local 284, Actipan, Benito Juárez, 03230 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C307">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>Parole | Restaurante Italiano en Polanco</v>
+      </c>
+      <c r="B308" t="str">
+        <v>Av. Emilio Castelar 163, Polanco, Polanco III Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C308">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>Madero Restaurante</v>
+      </c>
+      <c r="B309" t="str">
+        <v>Av. Río Churubusco 583, Sector Popular, Popular, Iztapalapa, 09060 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C309">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>Jardín San Miguel</v>
+      </c>
+      <c r="B310" t="str">
+        <v>José María Izazaga 140, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06090 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C310">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>Salón Tenampa</v>
+      </c>
+      <c r="B311" t="str">
+        <v>Plaza Garibaldi 12, Centro, Cuauhtémoc, 06010 Centro, CDMX</v>
+      </c>
+      <c r="C311">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>RESTAURANTE MICHOACAN</v>
+      </c>
+      <c r="B312" t="str">
+        <v>Av. División del Nte. 3451, El Rosario, Coyoacán, 04380 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C312">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>La Cervecería de Barrio - Universidad (Oficial)</v>
+      </c>
+      <c r="B313" t="str">
+        <v>Av. Universidad 645, Col del Valle Centro, Benito Juárez, 03100 Del. Benito Juárez, CDMX</v>
+      </c>
+      <c r="C313">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>ELA Gyros</v>
+      </c>
+      <c r="B314" t="str">
+        <v>La Morena 1112, casi esquina, Petén, Narvarte Poniente, Benito Juárez, 03020 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C314">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>Cielito Querido Café MIDE</v>
+      </c>
+      <c r="B315" t="str">
+        <v>C. de Tacuba 17, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C315">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>Amanda's Bistro/Café</v>
+      </c>
+      <c r="B316" t="str">
+        <v>Museo 77, El Rosario, Coyoacán, 04380 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C316">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>Ostionería juanito y queta</v>
+      </c>
+      <c r="B317" t="str">
+        <v>República de Uruguay 31, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C317">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>Sears Polanco</v>
+      </c>
+      <c r="B318" t="str">
+        <v>Av. Ejército Nacional Mexicano 980, Polanco, Polanco I Secc, Miguel Hidalgo, 11510 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>La Fenicia Del Valle Sur</v>
+      </c>
+      <c r="B319" t="str">
+        <v>Patricio Sanz 1701-Local 1-A, Col del Valle Centro, Benito Juárez, 03100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C319">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>Arena CDMX</v>
+      </c>
+      <c r="B320" t="str">
+        <v>Av. de las Granjas 800, Santa Barbara, Azcapotzalco, 02230 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>Mr Bunny Universidad</v>
+      </c>
+      <c r="B321" t="str">
+        <v>Av. Universidad 644A, Letran Valle, Benito Juárez, 03650 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C321">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>Sanborns Universidad | Restaurante, Tienda y Farmacia</v>
+      </c>
+      <c r="B322" t="str">
+        <v>CENTRO COMERCIAL Plaza Universidad, Av. Universidad, Sta Cruz Atoyac, Benito Juárez, 03313 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C322">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>Templo Mayor de México-Tenochtitlan</v>
+      </c>
+      <c r="B323" t="str">
+        <v>República de Guatemala 60, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06060 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C323">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>El Mirador de Chapultepec</v>
+      </c>
+      <c r="B324" t="str">
+        <v>Av Chapultepec 606, San Miguel Chapultepec I Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C324">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>Jardin Alejandro Flores</v>
+      </c>
+      <c r="B325" t="str">
+        <v>Av. P.º de la Reforma, Guerrero, Cuauhtémoc, 06300 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C325">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>Vips Universidad</v>
+      </c>
+      <c r="B326" t="str">
+        <v>Parroquia 1031, Sta Cruz Atoyac, Benito Juárez, 03313 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C326">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>Brassi</v>
+      </c>
+      <c r="B327" t="str">
+        <v>Virgilio 8, Polanco, Polanco III Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C327">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>La Esquina del Té</v>
+      </c>
+      <c r="B328" t="str">
+        <v>Ámsterdam 55, Hipódromo Condesa, Cuauhtémoc, 06100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C328">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>Zinco Jazz Club</v>
+      </c>
+      <c r="B329" t="str">
+        <v>Calle de Motolinia 20, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C329">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>La casa de Toño en Vista Norte</v>
+      </c>
+      <c r="B330" t="str">
+        <v>Local SU-08, Col. Alc, Plaza Vista Norte, Av. Acueducto 650, Residencial Zacatenco, Gustavo A. Madero, 07369 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C330">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>Potzollcalli Universidad</v>
+      </c>
+      <c r="B331" t="str">
+        <v>Av. Universidad 1874, Copilco Universidad, Coyoacán, 04310 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C331">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>Tierra Garat Blas Pascal</v>
+      </c>
+      <c r="B332" t="str">
+        <v>Av. Ejército Nacional Mexicano 1112-Planta baja, Polanco, Polanco I Secc, Miguel Hidalgo, 11510 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C332">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>Terraza Homework</v>
+      </c>
+      <c r="B333" t="str">
+        <v>Pl. de la República 9, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>Panda Express Terraza Coapa</v>
+      </c>
+      <c r="B334" t="str">
+        <v>Calz Acoxpa 610, Coapa, Equipamiento Plaza Coapa, Tlalpan, 14390 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C334">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>Rojo Bistrot</v>
+      </c>
+      <c r="B335" t="str">
+        <v>Ámsterdam 71, Colonia Condesa, Cuauhtémoc, 06140 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C335">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>Mafalda</v>
+      </c>
+      <c r="B336" t="str">
+        <v>Av Miguel Hidalgo 10, San Lucas, Coyoacán, 04030 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C336">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>Larala Larala Canta Bar</v>
+      </c>
+      <c r="B337" t="str">
+        <v>Calle de Niza 19, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C337">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>Gong cha Centro Histórico CDMX</v>
+      </c>
+      <c r="B338" t="str">
+        <v>Calle de Motolinia 41, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C338">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>Tirolesa marqueza</v>
+      </c>
+      <c r="B339" t="str">
+        <v>52753 Méx., México</v>
+      </c>
+      <c r="C339">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>OUZERIA</v>
+      </c>
+      <c r="B340" t="str">
+        <v>Calle Julio Verne 95, Polanco, Polanco IV Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>La Casa de los Abuelos Polanco</v>
+      </c>
+      <c r="B341" t="str">
+        <v>Av Moliere 325, Polanco, Polanco II Secc, Miguel Hidalgo, 11540 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C341">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>Museo Tamayo Arte Contemporáneo</v>
+      </c>
+      <c r="B342" t="str">
+        <v>Av. P.º de la Reforma 51, Polanco, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11580 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C342">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>Doi</v>
+      </c>
+      <c r="B343" t="str">
+        <v>Colima 268, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C343">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>Alameda Central</v>
+      </c>
+      <c r="B344" t="str">
+        <v>Av. Hidalgo s/n, Colonia Centro, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C344">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>Museo Nacional de Antropología</v>
+      </c>
+      <c r="B345" t="str">
+        <v>Av. P.º de la Reforma s/n, Polanco, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C345">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>Pista de Hielo</v>
+      </c>
+      <c r="B346" t="str">
+        <v>Mosqueta Y Heroes, Eje 1 Nte. 259, Buenavista, Cuauhtémoc, 06350 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>Santa Clara Narvarte</v>
+      </c>
+      <c r="B347" t="str">
+        <v>Av. Universidad 343-A, Narvarte Poniente, Benito Juárez, 03023 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C347">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>Club deportivo Tláhuac</v>
+      </c>
+      <c r="B348" t="str">
+        <v>San Rafael Atlixco 4379, Santa Ana Nte., Tláhuac, 13300 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C348">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>Government Club Polanco</v>
+      </c>
+      <c r="B349" t="str">
+        <v>local 6,7 y 8, Av. Pdte. Masaryk 393, Polanco, Polanco III Secc, Miguel Hidalgo, 05010 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C349">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>Museo Nacional de las Culturas del Mundo INAH</v>
+      </c>
+      <c r="B350" t="str">
+        <v>Moneda 13, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C350">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>Karaoke Caverna Napoles</v>
+      </c>
+      <c r="B351" t="str">
+        <v>Maximino Ávila Camacho 113, Cd. de los Deportes, Benito Juárez, 03710 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C351">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>Domino's Zoológico de Chapultepec</v>
+      </c>
+      <c r="B352" t="str">
+        <v>C. Lago San Pedro 1-A Secc. B, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11580 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C352">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>PLAZA TEPEYAC</v>
+      </c>
+      <c r="B353" t="str">
+        <v>Calz de Guadalupe 431, Guadalupe Tepeyac, Gustavo A. Madero, 07840 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C353">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>Monumento Por La Paz</v>
+      </c>
+      <c r="B354" t="str">
+        <v>Av. Ricardo Flores Magón, Tlatelolco, Cuauhtémoc, 06900 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>Galia Chef</v>
+      </c>
+      <c r="B355" t="str">
+        <v>Av. Álvaro Obregón 101, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C355">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>Cachurro</v>
+      </c>
+      <c r="B356" t="str">
+        <v>Lorenzo Boturini 15, Del Parque, Cuauhtémoc, 15960 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C356">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>Quesadillas Lucha</v>
+      </c>
+      <c r="B357" t="str">
+        <v>C. Xicoténcatl local 323, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C357">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>Farina Polanco</v>
+      </c>
+      <c r="B358" t="str">
+        <v>Av. Isaac Newton 53-1, Polanco, Polanco IV Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C358">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>Mariscos Tlaquepaque</v>
+      </c>
+      <c r="B359" t="str">
+        <v>Av Independencia 8, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C359">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>Carnitas Parque Luna</v>
+      </c>
+      <c r="B360" t="str">
+        <v>Hamburgo 282, Juárez, Cuauhtémoc, 06740 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C360">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>Las Hijas de la Tostada Polanco</v>
+      </c>
+      <c r="B361" t="str">
+        <v>planta baja, Blvd. Miguel de Cervantes Saavedra 301, Granada, Miguel Hidalgo, 11520 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C361">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>Palacio de Bellas Artes</v>
+      </c>
+      <c r="B362" t="str">
+        <v>Av. Juarez S/N, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>El Puerto de Don Roque</v>
+      </c>
+      <c r="B363" t="str">
+        <v>Cjon. Canal 20, Merced Balbuena, Venustiano Carranza, 15810 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C363">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>Acuario Michin CDMX</v>
+      </c>
+      <c r="B364" t="str">
+        <v>Calz. San Juan de Aragón 399, Granjas Modernas, Gustavo A. Madero, 07460 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C364">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>Domino's Kidzania</v>
+      </c>
+      <c r="B365" t="str">
+        <v>C.C. Santa Fe, Vasco de Quiroga # 3800 L.1 PB |México, Antigua Mina, Santa Fe, La Totoloapan, Cuajimalpa de Morelos, 05109 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C365">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>Sanborns Madero | Restaurante, Tienda y Farmacia</v>
+      </c>
+      <c r="B366" t="str">
+        <v>Av Francisco I. Madero 4, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06500 Ejido del Centro, CDMX</v>
+      </c>
+      <c r="C366">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>Biblioteca del Piloto café</v>
+      </c>
+      <c r="B367" t="str">
+        <v>Av. Pdte. Plutarco Elías Calles 1050, Reforma Iztaccihuatl Nte., Iztacalco, 08810 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C367">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>Carnitas Morales</v>
+      </c>
+      <c r="B368" t="str">
+        <v>Museo S/N Esq Hidalgo, Estudiantes de 1968, Coyoacán, 04380 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C368">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>Cerro de las Cruces</v>
+      </c>
+      <c r="B369" t="str">
+        <v>Prol. 2 de Abril, Xochimilco, 16654 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C369">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>Vans Universidad</v>
+      </c>
+      <c r="B370" t="str">
+        <v>Plaza Universidad Av. Universidad No. 1000 Local B 185 - 186, Sta Cruz Atoyac, Benito Juárez, 03310 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>Sears Centro Histórico</v>
+      </c>
+      <c r="B371" t="str">
+        <v>Av. Juarez 14, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>La Casa de Toño</v>
+      </c>
+      <c r="B372" t="str">
+        <v>Av. Guillermo Massieu Helguera 86, La Purísima Ticoman, Gustavo A. Madero, 07320 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C372">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>Hooters Polanco</v>
+      </c>
+      <c r="B373" t="str">
+        <v>Loc. L-A, Av Moliere 353, Polanco, Polanco III Secc, Miguel Hidalgo, 11540 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C373">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>Restaurant Árabe Miguel</v>
+      </c>
+      <c r="B374" t="str">
+        <v>Córdoba 226, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C374">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>Restaurante Peña Grill</v>
+      </c>
+      <c r="B375" t="str">
+        <v>Av. Genaro Estrada 53, Jacarandas, Iztapalapa, 09690 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C375">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>La Oaxaqueña</v>
+      </c>
+      <c r="B376" t="str">
+        <v>Teniente Roberto Gómez Moreno 404, Escuadrón 201, Iztapalapa, 09060 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C376">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>Cafebrería El Péndulo</v>
+      </c>
+      <c r="B377" t="str">
+        <v>Av. Álvaro Obregón 86, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C377">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>Pizzas los Gemelos</v>
+      </c>
+      <c r="B378" t="str">
+        <v>Margil 30, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06060 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C378">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>EL DIEZ LA NUEVA</v>
+      </c>
+      <c r="B379" t="str">
+        <v>Calle Clavelinas 133, Nueva Santa María, Azcapotzalco, 02800 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C379">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>BOLIBAR Bar - Botanas &amp; Boliche</v>
+      </c>
+      <c r="B380" t="str">
+        <v>Cto Plaza Esmeralda 13, Bosque Esmeralda, 52937 Cdad. López Mateos, Méx.</v>
+      </c>
+      <c r="C380">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>Galerías Castillo</v>
+      </c>
+      <c r="B381" t="str">
+        <v>Marconi 2-Local 2, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C381">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>Afromenú México</v>
+      </c>
+      <c r="B382" t="str">
+        <v>Calle Ote. 182 362b, Moctezuma 2da Secc, Venustiano Carranza, 15530 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C382">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>Templo de Jesús María</v>
+      </c>
+      <c r="B383" t="str">
+        <v>Jesús María 39, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06060 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>Cluny</v>
+      </c>
+      <c r="B384" t="str">
+        <v>Av. de la Paz 57, San Ángel, Álvaro Obregón, 01000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C384">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>Distrito Urbano Centro</v>
+      </c>
+      <c r="B385" t="str">
+        <v>Av. 5 de Mayo 42, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C385">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>Los Arcos. Acueducto</v>
+      </c>
+      <c r="B386" t="str">
+        <v>Calle Melchor Ocampo 100, Gualupita, 62280 Cuernavaca, Mor.</v>
+      </c>
+      <c r="C386">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>La Perla De La Roma</v>
+      </c>
+      <c r="B387" t="str">
+        <v>Av. Cuauhtémoc 35, La Romita, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C387">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>Museo de economía</v>
+      </c>
+      <c r="B388" t="str">
+        <v>Simón Bolívar 1, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C388">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>Marisqueria Huatulco</v>
+      </c>
+      <c r="B389" t="str">
+        <v>Juan de La Barrera 29, Hank González, Iztapalapa, 09750 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C389">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>Casa de la Malinche</v>
+      </c>
+      <c r="B390" t="str">
+        <v>República de Cuba 95, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C390">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>Ilios Polanco | Restaurante Griego</v>
+      </c>
+      <c r="B391" t="str">
+        <v>Av. Pdte. Masaryk 311, Polanco, Polanco IV Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C391">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>Toks</v>
+      </c>
+      <c r="B392" t="str">
+        <v>Av. Marina Nacional 60-PB-104, Tacuba, Miguel Hidalgo, 11410 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C392">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>Italianni's Del Valle</v>
+      </c>
+      <c r="B393" t="str">
+        <v>Av. Universidad 740, Sta Cruz Atoyac, Benito Juárez, 03310 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C393">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>Videomania Arcade</v>
+      </c>
+      <c r="B394" t="str">
+        <v>Tlaxcala 161, Colonia Condesa, Cuauhtémoc, 06100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C394">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>El Ocho</v>
+      </c>
+      <c r="B395" t="str">
+        <v>Av México 111, Hipódromo, Cuauhtémoc, 06100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C395">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>Placa del Descubrimiento de la Coatlicue</v>
+      </c>
+      <c r="B396" t="str">
+        <v>José María Pino Suárez, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06060 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>Fogo De Chão Polanco</v>
+      </c>
+      <c r="B397" t="str">
+        <v>Alejandro Dumas 105, Polanco, Polanco IV Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C397">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>Panda Express</v>
+      </c>
+      <c r="B398" t="str">
+        <v>Planta Baja, Av. P.º de la Reforma 77-Local 1-5, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C398">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>La Azotea</v>
+      </c>
+      <c r="B399" t="str">
+        <v>Calle Dr Mora 9-4to piso, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C399">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>Vegamo</v>
+      </c>
+      <c r="B400" t="str">
+        <v>Revillagigedo 47, Colonia Centro, Centro, Cuauhtémoc, 06070 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C400">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>Retro gaming cdmx</v>
+      </c>
+      <c r="B401" t="str">
+        <v>Eje central Lázaro cárdenas 11 Local 112 primer piso, Colonia Centro, Centro, Cuauhtémoc, 06050 Cuahutémoc, CDMX</v>
+      </c>
+      <c r="C401">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>JoSelo Café</v>
+      </c>
+      <c r="B402" t="str">
+        <v>Av. Emilio Castelar 107-Local F, Polanco, Polanco IV Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C402">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>Monumento Hipsográfico de Enrico Martínez</v>
+      </c>
+      <c r="B403" t="str">
+        <v>Calle Monte de Piedad 7, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Centro, CDMX</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>África Mía Restaurante</v>
+      </c>
+      <c r="B404" t="str">
+        <v>Av. Miguel Ángel de Quevedo 830, La Concepción, Coyoacán, 04020 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C404">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>Terraza Dos Equis</v>
+      </c>
+      <c r="B405" t="str">
+        <v>Isabel La Católica 68, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06080 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C405">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>Fuente de Cibeles</v>
+      </c>
+      <c r="B406" t="str">
+        <v>Pl. Villa de Madrid, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C406">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>Zoológico de Chapultepec</v>
+      </c>
+      <c r="B407" t="str">
+        <v>Calz. Chivatito s/n, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>Pan de Azucar Maid's café</v>
+      </c>
+      <c r="B408" t="str">
+        <v>Bugambilia 41, Xaltocan, Xochimilco, 16090 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C408">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>Estrela Do Sul México</v>
+      </c>
+      <c r="B409" t="str">
+        <v>Av. Revolución 1382, Guadalupe Inn, Álvaro Obregón, 01020 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C409">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>El planetario</v>
+      </c>
+      <c r="B410" t="str">
+        <v>San Cástulo 656, Pedregal de Sta Úrsula, Coyoacán, 04600 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>La Iglesia del Señor</v>
+      </c>
+      <c r="B411" t="str">
+        <v>Prol. Tlahuicas 15, San Francisco Culhuacan, Culhuacan CTM V, Coyoacán, 04260 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>Mirador Desierto de los Leones</v>
+      </c>
+      <c r="B412" t="str">
+        <v>Desierto de los Leones, Cuajimalpa de Morelos, 05740 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C412">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>Pujol</v>
+      </c>
+      <c r="B413" t="str">
+        <v>Tennyson 133, Polanco, Polanco IV Secc, Miguel Hidalgo, 11570 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C413">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>La Antigua bodega</v>
+      </c>
+      <c r="B414" t="str">
+        <v>Eje 5 Sur 64, Paseos de Churubusco, Iztapalapa, 09030 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C414">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>Lovecraft Café</v>
+      </c>
+      <c r="B415" t="str">
+        <v>Calle 1325 #40 esquina, Lorenzo Boturini, Colonia Del Parque, Lorenzo Boturini, Venustiano Carranza, 15960 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C415">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>El faro del norte, cafe &amp; árte</v>
+      </c>
+      <c r="B416" t="str">
+        <v>Loma Huizache 39, San Juan Ixtacala Plano Nte, 52928 Cdad. López Mateos, Méx.</v>
+      </c>
+      <c r="C416">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>Casa Licha Pozole</v>
+      </c>
+      <c r="B417" t="str">
+        <v>Sur 69-A 513, Justo Sierra, Iztapalapa, 09460 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C417">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>Templo de San Francisco</v>
+      </c>
+      <c r="B418" t="str">
+        <v>Av Francisco I. Madero 7, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C418">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>Klein's Polanco</v>
+      </c>
+      <c r="B419" t="str">
+        <v>Av. Pdte. Masaryk 360B, Polanco, Polanco III Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C419">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>Cantina La Montañesa</v>
+      </c>
+      <c r="B420" t="str">
+        <v>C. de la Palma 9 A, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C420">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>Museo del Telégrafo</v>
+      </c>
+      <c r="B421" t="str">
+        <v>C. de Tacuba 8, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C421">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>La Casa de Toño en Polanco</v>
+      </c>
+      <c r="B422" t="str">
+        <v>José Luis Lagrange S/N, Polanco, Polanco I Secc, Miguel Hidalgo, 11510 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C422">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>Bahía Madero Marisquería</v>
+      </c>
+      <c r="B423" t="str">
+        <v>Av Francisco I. Madero 60, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Centro, CDMX</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>La Morera Mercado Masaryk</v>
+      </c>
+      <c r="B424" t="str">
+        <v>Av. F. C. de Cuernavaca esquina presidente Masaryk, Polanco, Polanco, Polanco I Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C424">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>Cielito Querido Café Marina Park</v>
+      </c>
+      <c r="B425" t="str">
+        <v>Av. Marina Nacional 60, Tacuba, Miguel Hidalgo, 11410 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C425">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>Sushi Itto Universidad 767</v>
+      </c>
+      <c r="B426" t="str">
+        <v>Av. Universidad 767, Col del Valle Sur, Benito Juárez, 03104 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C426">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>Hooters Universidad</v>
+      </c>
+      <c r="B427" t="str">
+        <v>Av. Universidad 734, Letran Valle, Benito Juárez, 03650 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C427">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>Vips Colón</v>
+      </c>
+      <c r="B428" t="str">
+        <v>Ignacio Ramírez 15, San Rafael, Cuauhtémoc, 06470 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C428">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>Hacienda de los Morales</v>
+      </c>
+      <c r="B429" t="str">
+        <v>Juan Vazquez de Mella 525, Polanco, Polanco I Secc, Miguel Hidalgo, 11510 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C429">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>Museo Art Toys.</v>
+      </c>
+      <c r="B430" t="str">
+        <v>Av. 5 de Mayo # 23, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C430">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>Au Pied de Cochon</v>
+      </c>
+      <c r="B431" t="str">
+        <v>Campos Elíseos 218, Polanco, Miguel Hidalgo, 11560 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C431">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>Eden Mx (Restaurante-Bar-Karaoke)</v>
+      </c>
+      <c r="B432" t="str">
+        <v>Xola 1308, Narvarte Poniente, Benito Juárez, 03020 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C432">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>SUKIYA Av. Universidad</v>
+      </c>
+      <c r="B433" t="str">
+        <v>Av. Universidad 749, Col del Valle Sur, Benito Juárez, 03100 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C433">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>Museo de la Ciudad de México</v>
+      </c>
+      <c r="B434" t="str">
+        <v>José María Pino Suárez 30, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06060 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C434">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>Museo Mural Diego Rivera</v>
+      </c>
+      <c r="B435" t="str">
+        <v>Calle Colón Balderas s/n, Colonia Centro, Centro, Cuauhtémoc, 06040 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C435">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>Maison Kayser Reforma 408</v>
+      </c>
+      <c r="B436" t="str">
+        <v>Av. P.º de la Reforma 408, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C436">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>La isla de los dragones</v>
+      </c>
+      <c r="B437" t="str">
+        <v>Calle de Motolinia 5, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Centro, CDMX</v>
+      </c>
+      <c r="C437">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>Restaurante Don Toribio</v>
+      </c>
+      <c r="B438" t="str">
+        <v>Simón Bolívar 31, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C438">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>Foro El Mictlán</v>
+      </c>
+      <c r="B439" t="str">
+        <v>Simón Bolívar 283, Obrera, Cuauhtémoc, 06800 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C439">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>Camino Al cerro Xochitepec</v>
+      </c>
+      <c r="B440" t="str">
+        <v>Sin nombre No. 873 109, Santa María Tepepan, Xochimilco, 16020 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C440">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>Parque Ecoturistico San Bernabé Ocotepec</v>
+      </c>
+      <c r="B441" t="str">
+        <v>Av. Ojo de Agua 1005, la tierra unidad, Álvaro Obregón, 10369 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>Urban Zone</v>
+      </c>
+      <c r="B442" t="str">
+        <v>Calz Melchor Ocampo 193-Local E-10, Verónica Anzúres, Miguel Hidalgo, 11300 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>Kolobok Universidad</v>
+      </c>
+      <c r="B443" t="str">
+        <v>Avenida Universidad 538 Casi esquina con, Eje 6 Sur, Letran Valle, Benito Juárez, 03650 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C443">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>Jardín Botánico IB-UNAM</v>
+      </c>
+      <c r="B444" t="str">
+        <v>C.U., Coyoacán, 04510 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C444">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>Templo de la Inmaculada Concepción de María</v>
+      </c>
+      <c r="B445" t="str">
+        <v>Belisario Domínguez 3, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Cuauhtémoc, CDMX</v>
+      </c>
+      <c r="C445">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>The Capital Grille Ciudad de México</v>
+      </c>
+      <c r="B446" t="str">
+        <v>Av. P.º de la Reforma 250-Local 1G, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C446">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>Iglesia de San Hipólito y San Casiano</v>
+      </c>
+      <c r="B447" t="str">
+        <v>Zarco 12, Centro Histórico de la Cdad. de México, Guerrero, Cuauhtémoc, 06300 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C447">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>Central de Brazil</v>
+      </c>
+      <c r="B448" t="str">
+        <v>Av. de la Paz 57, San Ángel, Álvaro Obregón, 01000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C448">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>Palmas Karaoke by il canto</v>
+      </c>
+      <c r="B449" t="str">
+        <v>Av. Paseo de las Palmas 530, Lomas - Virreyes, Lomas de Chapultepec, Miguel Hidalgo, 11000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C449">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>¡Recórcholis! Parque Delta</v>
+      </c>
+      <c r="B450" t="str">
+        <v>Av. Cuauhtémoc 462, Narvarte Poniente, Benito Juárez, 03020 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>Cine Tonalá</v>
+      </c>
+      <c r="B451" t="str">
+        <v>Tonalá 261, Roma Sur, Cuauhtémoc, 06760 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C451">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>Deportes Rube.</v>
+      </c>
+      <c r="B452" t="str">
+        <v>C. López 26, Colonia Centro, Centro, Cuauhtémoc, 06050 Ejido del Centro, CDMX</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>El Peter Cantabar</v>
+      </c>
+      <c r="B453" t="str">
+        <v>Av. de los Insurgentes Sur 2351-Planta Alta, San Ángel, Álvaro Obregón, 01000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C453">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>Starbucks Plaza Carso I</v>
+      </c>
+      <c r="B454" t="str">
+        <v>C. Lago Zurich s/n, Amp Granada, Miguel Hidalgo, 11529 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C454">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>Monumento A Los Indios Verdes</v>
+      </c>
+      <c r="B455" t="str">
+        <v>Prolongación Misterios 129, Santa Isabel Tola, Gustavo A. Madero, 07010 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>Ruinas Palacio de Axayácatl</v>
+      </c>
+      <c r="B456" t="str">
+        <v>C. de la Palma 12, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C456">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>San Petter Clavería</v>
+      </c>
+      <c r="B457" t="str">
+        <v>Av. Cuitláhuac 3134-4, Claveria, Azcapotzalco, 02080 Ciudad de México, CDMX</v>
+      </c>
+      <c r="C457">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
         <v>La Perla</v>
       </c>
-      <c r="B195" t="str">
+      <c r="B458" t="str">
         <v>República de Cuba 44, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</v>
       </c>
-      <c r="C195" t="str">
-        <v/>
+      <c r="C458">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>Amanecer Climbing</v>
+      </c>
+      <c r="B459" t="str">
+        <v>Boulevard Palmas Hills, Blvrd. Interlomas Manzana 1-Lote 1, Interlomas, Valle de las Palmas, 52763 Ciudad de México, Méx.</v>
+      </c>
+      <c r="C459">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C195"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C459"/>
   </ignoredErrors>
 </worksheet>
 </file>